--- a/balanced_dataset_results_UPDATED.xlsx
+++ b/balanced_dataset_results_UPDATED.xlsx
@@ -1,29 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#coding ground\Github\Repos\fraud_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4CD6D8-BB0A-48DD-B126-BF20B08131C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11D767D-D93D-48C8-9E06-8FF71280883B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4350" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
     <sheet name="Class_weight" sheetId="2" r:id="rId2"/>
     <sheet name="SMOTECNC_dataset" sheetId="3" r:id="rId3"/>
     <sheet name="main" sheetId="4" r:id="rId4"/>
+    <sheet name="import" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="56">
   <si>
     <t>fbeta</t>
   </si>
@@ -219,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +243,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -282,9 +314,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -292,7 +321,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -601,9 +652,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,7 +683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -664,7 +715,7 @@
         <v>0.383087158203125</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -696,7 +747,7 @@
         <v>0.29306674003601069</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -728,7 +779,7 @@
         <v>1.2002706527709959E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -760,7 +811,7 @@
         <v>7.7994539737701416</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -792,7 +843,7 @@
         <v>5.4012060165405273E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -824,7 +875,7 @@
         <v>0.53112077713012695</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -856,7 +907,7 @@
         <v>7.7017784118652344E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -888,7 +939,7 @@
         <v>4.0008783340454102E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -920,7 +971,7 @@
         <v>3.1007289886474609E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -965,9 +1016,9 @@
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -996,8 +1047,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1031,8 +1082,8 @@
         <v>0.383087158203125</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1064,8 +1115,8 @@
         <v>0.29306674003601069</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1097,8 +1148,8 @@
         <v>1.2002706527709959E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1130,8 +1181,8 @@
         <v>7.7994539737701416</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1163,8 +1214,8 @@
         <v>5.4012060165405273E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1196,8 +1247,8 @@
         <v>0.53112077713012695</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1229,8 +1280,8 @@
         <v>7.7017784118652344E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1262,8 +1313,8 @@
         <v>4.0008783340454102E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1295,8 +1346,8 @@
         <v>3.1007289886474609E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1328,8 +1379,8 @@
         <v>3.2007455825805657E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1363,8 +1414,8 @@
         <v>0.40109086036682129</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1396,8 +1447,8 @@
         <v>0.34207820892333979</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1429,8 +1480,8 @@
         <v>1.10018253326416E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1462,8 +1513,8 @@
         <v>0.35908150672912598</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1495,8 +1546,8 @@
         <v>0.28206443786621088</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1528,8 +1579,8 @@
         <v>1.100254058837891E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1561,8 +1612,8 @@
         <v>0.39809083938598627</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1594,8 +1645,8 @@
         <v>0.33907699584960938</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1627,8 +1678,8 @@
         <v>1.100277900695801E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1660,8 +1711,8 @@
         <v>0.36808395385742188</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1693,8 +1744,8 @@
         <v>0.28406572341918951</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
       <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1726,8 +1777,8 @@
         <v>1.1002302169799799E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1761,8 +1812,8 @@
         <v>0.46810579299926758</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1794,8 +1845,8 @@
         <v>0.47099637985229492</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
@@ -1827,8 +1878,8 @@
         <v>1.3003110885620121E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
@@ -1860,8 +1911,8 @@
         <v>15.430972099304199</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
@@ -1893,8 +1944,8 @@
         <v>5.5012226104736328E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
@@ -1926,8 +1977,8 @@
         <v>0.5391232967376709</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
       <c r="B30" s="1" t="s">
         <v>15</v>
       </c>
@@ -1959,8 +2010,8 @@
         <v>8.6019277572631836E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
       <c r="B31" s="1" t="s">
         <v>16</v>
       </c>
@@ -1992,8 +2043,8 @@
         <v>4.7031164169311523E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
       <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
@@ -2025,8 +2076,8 @@
         <v>3.4007549285888672E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
       <c r="B33" s="1" t="s">
         <v>18</v>
       </c>
@@ -2058,8 +2109,8 @@
         <v>3.3007383346557617E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2093,8 +2144,8 @@
         <v>0.3140714168548584</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
       <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
@@ -2126,8 +2177,8 @@
         <v>0.32007265090942377</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
       <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
@@ -2159,8 +2210,8 @@
         <v>1.100254058837891E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
       <c r="B37" s="1" t="s">
         <v>12</v>
       </c>
@@ -2192,8 +2243,8 @@
         <v>14.614700794219971</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
       <c r="B38" s="1" t="s">
         <v>13</v>
       </c>
@@ -2225,8 +2276,8 @@
         <v>5.5012702941894531E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
       <c r="B39" s="1" t="s">
         <v>14</v>
       </c>
@@ -2258,8 +2309,8 @@
         <v>0.50911545753479004</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
       <c r="B40" s="1" t="s">
         <v>15</v>
       </c>
@@ -2291,8 +2342,8 @@
         <v>7.3016881942749023E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
       <c r="B41" s="1" t="s">
         <v>16</v>
       </c>
@@ -2324,8 +2375,8 @@
         <v>3.8009405136108398E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
       <c r="B42" s="1" t="s">
         <v>17</v>
       </c>
@@ -2357,8 +2408,8 @@
         <v>3.2007217407226563E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
       <c r="B43" s="1" t="s">
         <v>18</v>
       </c>
@@ -2409,14 +2460,14 @@
       <selection activeCell="A16" sqref="A16:K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
@@ -2436,7 +2487,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2459,7 +2510,7 @@
         <v>0.53429231954790646</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2482,7 +2533,7 @@
         <v>0.91261952146719916</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -2505,7 +2556,7 @@
         <v>5.1847051198963059E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -2528,7 +2579,7 @@
         <v>0.85106382978723405</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -2551,7 +2602,7 @@
         <v>0.69808028329850547</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,7 +2625,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -2597,7 +2648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2620,7 +2671,7 @@
         <v>2829.5603652000432</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
@@ -2643,7 +2694,7 @@
         <v>0.1520347595214844</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -2666,7 +2717,7 @@
         <v>0.14903450012207031</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2698,7 +2749,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -2733,7 +2784,7 @@
         <v>1.10015869140625E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -2768,7 +2819,7 @@
         <v>74.969163417816162</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -2803,7 +2854,7 @@
         <v>6.3014507293701172E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -2838,7 +2889,7 @@
         <v>1.032234668731689</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -2873,7 +2924,7 @@
         <v>5.9012651443481452E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -2915,27 +2966,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD01605-4AAB-4FF0-9739-8536CB6D4A68}">
-  <dimension ref="B2:M63"/>
+  <dimension ref="A2:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2964,11 +3016,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>AVERAGE(D3:D12)</f>
+        <v>0.76506404331409994</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D3">
@@ -2986,10 +3042,10 @@
       <c r="H3">
         <v>0.798396406951702</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="12">
         <v>27</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="12">
         <v>20</v>
       </c>
       <c r="K3">
@@ -2998,12 +3054,15 @@
       <c r="L3">
         <v>14.614700794219971</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D4">
@@ -3021,10 +3080,10 @@
       <c r="H4">
         <v>0.69266409513752059</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="12">
         <v>20</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="12">
         <v>21</v>
       </c>
       <c r="K4">
@@ -3033,12 +3092,15 @@
       <c r="L4">
         <v>1.1002302169799799E-2</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="M4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D5">
@@ -3059,7 +3121,7 @@
       <c r="I5">
         <v>162</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="10">
         <v>17</v>
       </c>
       <c r="K5">
@@ -3068,12 +3130,15 @@
       <c r="L5">
         <v>15.430972099304199</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="M5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D6">
@@ -3091,10 +3156,10 @@
       <c r="H6">
         <v>0.79517925129512146</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="10">
         <v>5</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="10">
         <v>22</v>
       </c>
       <c r="K6">
@@ -3103,12 +3168,15 @@
       <c r="L6">
         <v>0.46810579299926758</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+      <c r="M6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D7">
@@ -3126,10 +3194,10 @@
       <c r="H7">
         <v>0.7956550709889284</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="10">
         <v>5</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="10">
         <v>22</v>
       </c>
       <c r="K7">
@@ -3138,8 +3206,11 @@
       <c r="L7">
         <v>0.47099637985229492</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
@@ -3173,8 +3244,11 @@
       <c r="L8">
         <v>1.100254058837891E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
@@ -3208,13 +3282,16 @@
       <c r="L9">
         <v>3.8009405136108398E-2</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>0.75051546391752577</v>
@@ -3229,7 +3306,7 @@
         <v>0.74468085106382975</v>
       </c>
       <c r="H10">
-        <v>0.78138405242704723</v>
+        <v>0.79148001643310684</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -3238,18 +3315,21 @@
         <v>24</v>
       </c>
       <c r="K10">
-        <v>111.7752957344055</v>
+        <v>14.24628615379333</v>
       </c>
       <c r="L10">
-        <v>0.39809083938598627</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+        <v>3.2007217407226563E-2</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>0.75051546391752577</v>
@@ -3264,7 +3344,7 @@
         <v>0.74468085106382975</v>
       </c>
       <c r="H11">
-        <v>0.79148001643310684</v>
+        <v>0.78138405242704723</v>
       </c>
       <c r="I11">
         <v>5</v>
@@ -3273,13 +3353,13 @@
         <v>24</v>
       </c>
       <c r="K11">
-        <v>14.24628615379333</v>
+        <v>111.7752957344055</v>
       </c>
       <c r="L11">
-        <v>3.2007217407226563E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+        <v>0.39809083938598627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3301,10 +3381,10 @@
       <c r="H12">
         <v>0.7965227694974365</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="10">
         <v>10</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="10">
         <v>24</v>
       </c>
       <c r="K12">
@@ -3314,7 +3394,11 @@
         <v>4.0008783340454102E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>AVERAGE(D13:D22)</f>
+        <v>0.73055183944449764</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
@@ -3336,10 +3420,10 @@
       <c r="H13">
         <v>0.75430066832260534</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="10">
         <v>15</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="10">
         <v>24</v>
       </c>
       <c r="K13">
@@ -3349,7 +3433,7 @@
         <v>3.4007549285888672E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -3371,10 +3455,10 @@
       <c r="H14">
         <v>0.7416169653365382</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="10">
         <v>24</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="10">
         <v>24</v>
       </c>
       <c r="K14">
@@ -3384,7 +3468,7 @@
         <v>4.7031164169311523E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
@@ -3406,10 +3490,10 @@
       <c r="H15">
         <v>0.6529289272415072</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="10">
         <v>66</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="10">
         <v>23</v>
       </c>
       <c r="K15">
@@ -3419,12 +3503,12 @@
         <v>1.3003110885620121E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>0.74009900990099009</v>
@@ -3439,7 +3523,7 @@
         <v>0.73404255319148937</v>
       </c>
       <c r="H16">
-        <v>0.76922045064647449</v>
+        <v>0.78850603492058602</v>
       </c>
       <c r="I16">
         <v>5</v>
@@ -3448,18 +3532,18 @@
         <v>25</v>
       </c>
       <c r="K16">
-        <v>111.02922034263609</v>
+        <v>80.789705514907837</v>
       </c>
       <c r="L16">
-        <v>0.40109086036682129</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+        <v>0.3140714168548584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>0.74009900990099009</v>
@@ -3474,7 +3558,7 @@
         <v>0.73404255319148937</v>
       </c>
       <c r="H17">
-        <v>0.78850603492058602</v>
+        <v>0.76922045064647449</v>
       </c>
       <c r="I17">
         <v>5</v>
@@ -3483,13 +3567,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>80.789705514907837</v>
+        <v>111.02922034263609</v>
       </c>
       <c r="L17">
-        <v>0.3140714168548584</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+        <v>0.40109086036682129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
@@ -3524,7 +3608,7 @@
         <v>3.5007953643798828E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3559,12 +3643,12 @@
         <v>0.36808395385742188</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D20">
         <v>0.71924029727497929</v>
@@ -3579,7 +3663,7 @@
         <v>0.71276595744680848</v>
       </c>
       <c r="H20">
-        <v>0.78470588766634308</v>
+        <v>0.78614400612430047</v>
       </c>
       <c r="I20">
         <v>5</v>
@@ -3588,18 +3672,18 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>101.8953905105591</v>
+        <v>88.842020034790039</v>
       </c>
       <c r="L20">
-        <v>0.383087158203125</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+        <v>0.35908150672912598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D21">
         <v>0.71924029727497929</v>
@@ -3614,7 +3698,7 @@
         <v>0.71276595744680848</v>
       </c>
       <c r="H21">
-        <v>0.78614400612430047</v>
+        <v>0.78470588766634308</v>
       </c>
       <c r="I21">
         <v>5</v>
@@ -3623,13 +3707,13 @@
         <v>27</v>
       </c>
       <c r="K21">
-        <v>88.842020034790039</v>
+        <v>101.8953905105591</v>
       </c>
       <c r="L21">
-        <v>0.35908150672912598</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+        <v>0.383087158203125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
@@ -3664,7 +3748,11 @@
         <v>3.1007289886474609E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>AVERAGE(D23:D34)</f>
+        <v>0.64199376937573627</v>
+      </c>
       <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
@@ -3699,7 +3787,7 @@
         <v>0.32007265090942377</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
@@ -3734,7 +3822,7 @@
         <v>7.7994539737701416</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
@@ -3769,7 +3857,7 @@
         <v>3.2007455825805657E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
@@ -3794,7 +3882,7 @@
       <c r="I26">
         <v>627</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="8">
         <v>14</v>
       </c>
       <c r="K26">
@@ -3804,7 +3892,7 @@
         <v>0.50911545753479004</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
@@ -3829,7 +3917,7 @@
       <c r="I27">
         <v>470</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="10">
         <v>19</v>
       </c>
       <c r="K27">
@@ -3839,7 +3927,7 @@
         <v>0.5391232967376709</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
@@ -3874,7 +3962,7 @@
         <v>0.53112077713012695</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
@@ -3909,7 +3997,7 @@
         <v>3.3007383346557617E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>20</v>
       </c>
@@ -3944,7 +4032,7 @@
         <v>0.28406572341918951</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3979,7 +4067,7 @@
         <v>0.28206443786621088</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>19</v>
       </c>
@@ -4014,7 +4102,7 @@
         <v>1.2002706527709959E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
@@ -4049,7 +4137,7 @@
         <v>0.29306674003601069</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
@@ -4084,7 +4172,11 @@
         <v>1.100254058837891E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>AVERAGE(D35:D44)</f>
+        <v>0.35857142738267272</v>
+      </c>
       <c r="B35" s="2" t="s">
         <v>20</v>
       </c>
@@ -4109,7 +4201,7 @@
       <c r="I35">
         <v>2121</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="8">
         <v>14</v>
       </c>
       <c r="K35">
@@ -4119,7 +4211,7 @@
         <v>0.33907699584960938</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>20</v>
       </c>
@@ -4144,7 +4236,7 @@
       <c r="I36">
         <v>2132</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="8">
         <v>14</v>
       </c>
       <c r="K36">
@@ -4154,7 +4246,7 @@
         <v>0.34207820892333979</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>33</v>
       </c>
@@ -4189,7 +4281,7 @@
         <v>8.6019277572631836E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>19</v>
       </c>
@@ -4224,7 +4316,7 @@
         <v>7.7017784118652344E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
@@ -4259,7 +4351,7 @@
         <v>7.3016881942749023E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>19</v>
       </c>
@@ -4294,7 +4386,7 @@
         <v>5.4012060165405273E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>20</v>
       </c>
@@ -4329,7 +4421,7 @@
         <v>1.10018253326416E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>34</v>
       </c>
@@ -4364,7 +4456,7 @@
         <v>5.5012702941894531E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>20</v>
       </c>
@@ -4399,7 +4491,7 @@
         <v>1.100277900695801E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>33</v>
       </c>
@@ -4434,7 +4526,7 @@
         <v>5.5012226104736328E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="s">
         <v>0</v>
       </c>
@@ -4466,336 +4558,350 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C48" s="5" t="s">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="8"/>
+      <c r="C48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48">
+        <v>0.53429231954790646</v>
+      </c>
+      <c r="E48">
+        <v>0.91261952146719916</v>
+      </c>
+      <c r="F48">
+        <v>5.1847051198963059E-2</v>
+      </c>
+      <c r="G48">
+        <v>0.85106382978723405</v>
+      </c>
+      <c r="H48">
+        <v>0.69808028329850547</v>
+      </c>
+      <c r="I48">
+        <v>1463</v>
+      </c>
+      <c r="J48">
+        <v>14</v>
+      </c>
+      <c r="K48">
+        <v>2829.5603652000432</v>
+      </c>
+      <c r="L48">
+        <v>0.1520347595214844</v>
+      </c>
+      <c r="M48">
+        <v>0.14903450012207031</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="10"/>
+      <c r="C49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0.75689981096408332</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.90765040672696617</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.26101694915254242</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.81914893617021278</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0.80113338016704927</v>
+      </c>
+      <c r="I49" s="5">
+        <v>218</v>
+      </c>
+      <c r="J49" s="5">
+        <v>17</v>
+      </c>
+      <c r="K49" s="5">
+        <v>621.48497343063354</v>
+      </c>
+      <c r="L49" s="5">
+        <v>2785.7766802310939</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="10"/>
+      <c r="C50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50">
+        <v>0.63778273335457158</v>
+      </c>
+      <c r="E50">
+        <v>0.90329037777778609</v>
+      </c>
+      <c r="F50">
+        <v>9.7591888466413187E-2</v>
+      </c>
+      <c r="G50">
+        <v>0.81914893617021278</v>
+      </c>
+      <c r="H50">
+        <v>0.70210898520029352</v>
+      </c>
+      <c r="I50">
+        <v>712</v>
+      </c>
+      <c r="J50">
+        <v>17</v>
+      </c>
+      <c r="K50">
+        <v>17.717572500705721</v>
+      </c>
+      <c r="L50">
+        <v>0.85363626480102539</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="10"/>
+      <c r="C51" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D51" s="5">
         <v>0.79741727199354318</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E51" s="5">
         <v>0.90379636873323299</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F51" s="5">
         <v>0.59375</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G51" s="5">
         <v>0.80851063829787229</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H51" s="5">
         <v>0.77776653446199817</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I51" s="5">
         <v>52</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J51" s="5">
         <v>18</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K51" s="5">
         <v>204.73599044481909</v>
       </c>
-      <c r="L48" s="6">
+      <c r="L51" s="5">
         <v>6.2342522144317627</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C49" s="3" t="s">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="8"/>
+      <c r="C52" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0.76411446249033255</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0.90284316402369558</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0.32203389830508472</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0.63109300844688321</v>
+      </c>
+      <c r="I52" s="5">
+        <v>160</v>
+      </c>
+      <c r="J52" s="5">
+        <v>18</v>
+      </c>
+      <c r="K52">
+        <v>6471.1831476688394</v>
+      </c>
+      <c r="L52">
+        <v>74.701642036437988</v>
+      </c>
+      <c r="M52">
+        <v>74.969163417816162</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="8"/>
+      <c r="C53" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0.77442414614773636</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0.89811535504621998</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0.44642857142857151</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.7978723404255319</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0.6929470987941333</v>
+      </c>
+      <c r="I53" s="5">
+        <v>93</v>
+      </c>
+      <c r="J53" s="5">
+        <v>19</v>
+      </c>
+      <c r="K53">
+        <v>797.83375072479248</v>
+      </c>
+      <c r="L53">
+        <v>1.300382614135742E-2</v>
+      </c>
+      <c r="M53">
+        <v>1.10015869140625E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="10"/>
+      <c r="C54" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D49">
+      <c r="D54">
         <v>0.79046836483155314</v>
       </c>
-      <c r="E49">
+      <c r="E54">
         <v>0.89352876158126815</v>
       </c>
-      <c r="F49">
+      <c r="F54">
         <v>0.88095238095238093</v>
-      </c>
-      <c r="G49">
-        <v>0.78723404255319152</v>
-      </c>
-      <c r="H49">
-        <v>0.80511414406811932</v>
-      </c>
-      <c r="I49">
-        <v>10</v>
-      </c>
-      <c r="J49">
-        <v>20</v>
-      </c>
-      <c r="K49">
-        <v>628.83125205039983</v>
-      </c>
-      <c r="L49">
-        <v>1.173768281936646</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C50" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50">
-        <v>0.77978635990139689</v>
-      </c>
-      <c r="E50">
-        <v>0.88820078667556523</v>
-      </c>
-      <c r="F50">
-        <v>0.86904761904761907</v>
-      </c>
-      <c r="G50">
-        <v>0.77659574468085102</v>
-      </c>
-      <c r="H50">
-        <v>0.80735210915347733</v>
-      </c>
-      <c r="I50">
-        <v>11</v>
-      </c>
-      <c r="J50">
-        <v>21</v>
-      </c>
-      <c r="K50">
-        <v>1341.127286195755</v>
-      </c>
-      <c r="L50">
-        <v>10.52744150161743</v>
-      </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C51" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51">
-        <v>0.7794661190965092</v>
-      </c>
-      <c r="E51">
-        <v>0.88819196070603246</v>
-      </c>
-      <c r="F51">
-        <v>0.85882352941176465</v>
-      </c>
-      <c r="G51">
-        <v>0.77659574468085102</v>
-      </c>
-      <c r="H51">
-        <v>0.79723721826175509</v>
-      </c>
-      <c r="I51">
-        <v>12</v>
-      </c>
-      <c r="J51">
-        <v>21</v>
-      </c>
-      <c r="K51">
-        <v>589.43659858703609</v>
-      </c>
-      <c r="L51">
-        <v>1.2859871387481689</v>
-      </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C52" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0.77442414614773636</v>
-      </c>
-      <c r="E52" s="6">
-        <v>0.89811535504621998</v>
-      </c>
-      <c r="F52" s="6">
-        <v>0.44642857142857151</v>
-      </c>
-      <c r="G52" s="6">
-        <v>0.7978723404255319</v>
-      </c>
-      <c r="H52" s="6">
-        <v>0.6929470987941333</v>
-      </c>
-      <c r="I52" s="6">
-        <v>93</v>
-      </c>
-      <c r="J52" s="6">
-        <v>19</v>
-      </c>
-      <c r="K52">
-        <v>797.83375072479248</v>
-      </c>
-      <c r="L52">
-        <v>1.300382614135742E-2</v>
-      </c>
-      <c r="M52">
-        <v>1.10015869140625E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C53" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="6">
-        <v>0.76411446249033255</v>
-      </c>
-      <c r="E53" s="6">
-        <v>0.90284316402369558</v>
-      </c>
-      <c r="F53" s="6">
-        <v>0.32203389830508472</v>
-      </c>
-      <c r="G53" s="6">
-        <v>0.80851063829787229</v>
-      </c>
-      <c r="H53" s="6">
-        <v>0.63109300844688321</v>
-      </c>
-      <c r="I53" s="6">
-        <v>160</v>
-      </c>
-      <c r="J53" s="6">
-        <v>18</v>
-      </c>
-      <c r="K53">
-        <v>6471.1831476688394</v>
-      </c>
-      <c r="L53">
-        <v>74.701642036437988</v>
-      </c>
-      <c r="M53">
-        <v>74.969163417816162</v>
-      </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C54" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54">
-        <v>0.76379515680825727</v>
-      </c>
-      <c r="E54">
-        <v>0.89277855417098428</v>
-      </c>
-      <c r="F54">
-        <v>0.43786982248520712</v>
       </c>
       <c r="G54">
         <v>0.78723404255319152</v>
       </c>
       <c r="H54">
-        <v>0.74267613697109314</v>
+        <v>0.80511414406811932</v>
       </c>
       <c r="I54">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="J54">
         <v>20</v>
       </c>
       <c r="K54">
+        <v>628.83125205039983</v>
+      </c>
+      <c r="L54">
+        <v>1.173768281936646</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="8"/>
+      <c r="C55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55">
+        <v>0.76379515680825727</v>
+      </c>
+      <c r="E55">
+        <v>0.89277855417098428</v>
+      </c>
+      <c r="F55">
+        <v>0.43786982248520712</v>
+      </c>
+      <c r="G55">
+        <v>0.78723404255319152</v>
+      </c>
+      <c r="H55">
+        <v>0.74267613697109314</v>
+      </c>
+      <c r="I55">
+        <v>95</v>
+      </c>
+      <c r="J55">
+        <v>20</v>
+      </c>
+      <c r="K55">
         <v>4459.9327099323273</v>
       </c>
-      <c r="L54">
+      <c r="L55">
         <v>7.8017473220825195E-2</v>
       </c>
-      <c r="M54">
+      <c r="M55">
         <v>6.3014507293701172E-2</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C55" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="6">
-        <v>0.75689981096408332</v>
-      </c>
-      <c r="E55" s="6">
-        <v>0.90765040672696617</v>
-      </c>
-      <c r="F55" s="6">
-        <v>0.26101694915254242</v>
-      </c>
-      <c r="G55" s="6">
-        <v>0.81914893617021278</v>
-      </c>
-      <c r="H55" s="6">
-        <v>0.80113338016704927</v>
-      </c>
-      <c r="I55" s="6">
-        <v>218</v>
-      </c>
-      <c r="J55" s="6">
-        <v>17</v>
-      </c>
-      <c r="K55" s="6">
-        <v>621.48497343063354</v>
-      </c>
-      <c r="L55" s="6">
-        <v>2785.7766802310939</v>
-      </c>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="10"/>
       <c r="C56" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D56">
-        <v>0.75051546391752577</v>
+        <v>0.77978635990139689</v>
       </c>
       <c r="E56">
-        <v>0.87229629568425104</v>
+        <v>0.88820078667556523</v>
       </c>
       <c r="F56">
-        <v>0.93333333333333335</v>
+        <v>0.86904761904761907</v>
       </c>
       <c r="G56">
-        <v>0.74468085106382975</v>
+        <v>0.77659574468085102</v>
       </c>
       <c r="H56">
-        <v>0.78794303482881833</v>
+        <v>0.80735210915347733</v>
       </c>
       <c r="I56">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J56">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K56">
-        <v>238.5943453192711</v>
+        <v>1341.127286195755</v>
       </c>
       <c r="L56">
-        <v>1.090114831924438</v>
-      </c>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+        <v>10.52744150161743</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="10"/>
       <c r="C57" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D57">
-        <v>0.74743326488706363</v>
+        <v>0.7794661190965092</v>
       </c>
       <c r="E57">
-        <v>0.8722080359889236</v>
+        <v>0.88819196070603246</v>
       </c>
       <c r="F57">
-        <v>0.82352941176470584</v>
+        <v>0.85882352941176465</v>
       </c>
       <c r="G57">
-        <v>0.74468085106382975</v>
+        <v>0.77659574468085102</v>
       </c>
       <c r="H57">
-        <v>0.68698419987573189</v>
+        <v>0.79723721826175509</v>
       </c>
       <c r="I57">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J57">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K57">
-        <v>39.437344989776612</v>
+        <v>589.43659858703609</v>
       </c>
       <c r="L57">
-        <v>0.33799505233764648</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+        <v>1.2859871387481689</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="8"/>
       <c r="C58" s="1" t="s">
         <v>38</v>
       </c>
@@ -4830,117 +4936,622 @@
         <v>1.032234668731689</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C59" s="1" t="s">
-        <v>39</v>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="10"/>
+      <c r="C59" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D59">
-        <v>0.71232876712328763</v>
+        <v>0.75051546391752577</v>
       </c>
       <c r="E59">
-        <v>0.87114891964499319</v>
+        <v>0.87229629568425104</v>
       </c>
       <c r="F59">
-        <v>0.34146341463414642</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="G59">
         <v>0.74468085106382975</v>
       </c>
       <c r="H59">
-        <v>0.56444419910745947</v>
+        <v>0.78794303482881833</v>
       </c>
       <c r="I59">
-        <v>135</v>
+        <v>5</v>
       </c>
       <c r="J59">
         <v>24</v>
       </c>
       <c r="K59">
+        <v>238.5943453192711</v>
+      </c>
+      <c r="L59">
+        <v>1.090114831924438</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="10"/>
+      <c r="C60" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60">
+        <v>0.74743326488706363</v>
+      </c>
+      <c r="E60">
+        <v>0.8722080359889236</v>
+      </c>
+      <c r="F60">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="G60">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="H60">
+        <v>0.68698419987573189</v>
+      </c>
+      <c r="I60">
+        <v>15</v>
+      </c>
+      <c r="J60">
+        <v>24</v>
+      </c>
+      <c r="K60">
+        <v>39.437344989776612</v>
+      </c>
+      <c r="L60">
+        <v>0.33799505233764648</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="8"/>
+      <c r="C61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61">
+        <v>0.71232876712328763</v>
+      </c>
+      <c r="E61">
+        <v>0.87114891964499319</v>
+      </c>
+      <c r="F61">
+        <v>0.34146341463414642</v>
+      </c>
+      <c r="G61">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="H61">
+        <v>0.56444419910745947</v>
+      </c>
+      <c r="I61">
+        <v>135</v>
+      </c>
+      <c r="J61">
+        <v>24</v>
+      </c>
+      <c r="K61">
         <v>36006.675769805908</v>
       </c>
-      <c r="L59">
+      <c r="L61">
         <v>6.1014413833618157E-2</v>
       </c>
-      <c r="M59">
+      <c r="M61">
         <v>5.9012651443481452E-2</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C60" s="3" t="s">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C62" s="7"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C63" s="7"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:L44">
+    <sortCondition descending="1" ref="D3:D44"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402F7E11-1355-4E9D-BD83-254983E0A558}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="16">
+        <v>0.79741727199354318</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0.90379636873323299</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0.59375</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0.77776653446199817</v>
+      </c>
+      <c r="G2" s="16">
+        <v>52</v>
+      </c>
+      <c r="H2" s="16">
+        <v>18</v>
+      </c>
+      <c r="I2" s="16">
+        <v>204.73599044481909</v>
+      </c>
+      <c r="J2" s="16">
+        <v>6.2342522144317627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0.79046836483155314</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.89352876158126815</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0.88095238095238093</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0.78723404255319152</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0.80511414406811932</v>
+      </c>
+      <c r="G3" s="16">
+        <v>10</v>
+      </c>
+      <c r="H3" s="16">
+        <v>20</v>
+      </c>
+      <c r="I3" s="16">
+        <v>628.83125205039983</v>
+      </c>
+      <c r="J3" s="16">
+        <v>1.173768281936646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0.77978635990139689</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.88820078667556523</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.86904761904761907</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.77659574468085102</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.80735210915347733</v>
+      </c>
+      <c r="G4" s="16">
+        <v>11</v>
+      </c>
+      <c r="H4" s="16">
+        <v>21</v>
+      </c>
+      <c r="I4" s="16">
+        <v>1341.127286195755</v>
+      </c>
+      <c r="J4" s="16">
+        <v>10.52744150161743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>0.7794661190965092</v>
+      </c>
+      <c r="C5">
+        <v>0.88819196070603246</v>
+      </c>
+      <c r="D5">
+        <v>0.85882352941176465</v>
+      </c>
+      <c r="E5">
+        <v>0.77659574468085102</v>
+      </c>
+      <c r="F5">
+        <v>0.79723721826175509</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <v>589.43659858703609</v>
+      </c>
+      <c r="J5">
+        <v>1.2859871387481689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="16">
+        <v>0.77442414614773636</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.89811535504621998</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.44642857142857151</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.7978723404255319</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.6929470987941333</v>
+      </c>
+      <c r="G6" s="16">
+        <v>93</v>
+      </c>
+      <c r="H6" s="16">
+        <v>19</v>
+      </c>
+      <c r="I6" s="16">
+        <v>797.83375072479248</v>
+      </c>
+      <c r="J6" s="16">
+        <v>1.300382614135742E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0.76411446249033255</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.90284316402369558</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.32203389830508472</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.63109300844688321</v>
+      </c>
+      <c r="G7" s="16">
+        <v>160</v>
+      </c>
+      <c r="H7" s="16">
+        <v>18</v>
+      </c>
+      <c r="I7" s="16">
+        <v>6471.1831476688394</v>
+      </c>
+      <c r="J7" s="16">
+        <v>74.701642036437988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0.76379515680825727</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.89277855417098428</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.43786982248520712</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.78723404255319152</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0.74267613697109314</v>
+      </c>
+      <c r="G8" s="16">
+        <v>95</v>
+      </c>
+      <c r="H8" s="16">
+        <v>20</v>
+      </c>
+      <c r="I8" s="16">
+        <v>4459.9327099323273</v>
+      </c>
+      <c r="J8" s="16">
+        <v>7.8017473220825195E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.75689981096408332</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.90765040672696617</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.26101694915254242</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.81914893617021278</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.80113338016704927</v>
+      </c>
+      <c r="G9" s="16">
+        <v>218</v>
+      </c>
+      <c r="H9" s="16">
+        <v>17</v>
+      </c>
+      <c r="I9" s="16">
+        <v>621.48497343063354</v>
+      </c>
+      <c r="J9" s="16">
+        <v>2785.7766802310939</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <v>0.75051546391752577</v>
+      </c>
+      <c r="C10">
+        <v>0.87229629568425104</v>
+      </c>
+      <c r="D10">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="E10">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="F10">
+        <v>0.78794303482881833</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>24</v>
+      </c>
+      <c r="I10">
+        <v>238.5943453192711</v>
+      </c>
+      <c r="J10">
+        <v>1.090114831924438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <v>0.74743326488706363</v>
+      </c>
+      <c r="C11">
+        <v>0.8722080359889236</v>
+      </c>
+      <c r="D11">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="E11">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="F11">
+        <v>0.68698419987573189</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>24</v>
+      </c>
+      <c r="I11">
+        <v>39.437344989776612</v>
+      </c>
+      <c r="J11">
+        <v>0.33799505233764648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>0.7290679304897314</v>
+      </c>
+      <c r="C12">
+        <v>0.87667989184994954</v>
+      </c>
+      <c r="D12">
+        <v>0.39010989010989011</v>
+      </c>
+      <c r="E12">
+        <v>0.75531914893617025</v>
+      </c>
+      <c r="F12">
+        <v>0.71239305785698559</v>
+      </c>
+      <c r="G12">
+        <v>111</v>
+      </c>
+      <c r="H12">
+        <v>23</v>
+      </c>
+      <c r="I12">
+        <v>3029.172640562057</v>
+      </c>
+      <c r="J12">
+        <v>1.028234481811523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>0.71232876712328763</v>
+      </c>
+      <c r="C13">
+        <v>0.87114891964499319</v>
+      </c>
+      <c r="D13">
+        <v>0.34146341463414642</v>
+      </c>
+      <c r="E13">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="F13">
+        <v>0.56444419910745947</v>
+      </c>
+      <c r="G13">
+        <v>135</v>
+      </c>
+      <c r="H13">
+        <v>24</v>
+      </c>
+      <c r="I13">
+        <v>36006.675769805908</v>
+      </c>
+      <c r="J13">
+        <v>6.1014413833618157E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D60">
+      <c r="B14" s="16">
         <v>0.63778273335457158</v>
       </c>
-      <c r="E60">
+      <c r="C14" s="16">
         <v>0.90329037777778609</v>
       </c>
-      <c r="F60">
+      <c r="D14" s="16">
         <v>9.7591888466413187E-2</v>
       </c>
-      <c r="G60">
+      <c r="E14" s="16">
         <v>0.81914893617021278</v>
       </c>
-      <c r="H60">
+      <c r="F14" s="16">
         <v>0.70210898520029352</v>
       </c>
-      <c r="I60">
+      <c r="G14" s="16">
         <v>712</v>
       </c>
-      <c r="J60">
+      <c r="H14" s="16">
         <v>17</v>
       </c>
-      <c r="K60">
+      <c r="I14" s="16">
         <v>17.717572500705721</v>
       </c>
-      <c r="L60">
+      <c r="J14" s="16">
         <v>0.85363626480102539</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C61" s="1" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D61">
+      <c r="B15">
         <v>0.53429231954790646</v>
       </c>
-      <c r="E61">
+      <c r="C15">
         <v>0.91261952146719916</v>
       </c>
-      <c r="F61">
+      <c r="D15">
         <v>5.1847051198963059E-2</v>
       </c>
-      <c r="G61">
+      <c r="E15">
         <v>0.85106382978723405</v>
       </c>
-      <c r="H61">
+      <c r="F15">
         <v>0.69808028329850547</v>
       </c>
-      <c r="I61">
+      <c r="G15">
         <v>1463</v>
       </c>
-      <c r="J61">
+      <c r="H15">
         <v>14</v>
       </c>
-      <c r="K61">
+      <c r="I15">
         <v>2829.5603652000432</v>
       </c>
-      <c r="L61">
+      <c r="J15">
         <v>0.1520347595214844</v>
       </c>
-      <c r="M61">
-        <v>0.14903450012207031</v>
-      </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C62" s="8"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C63" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C48:M61">
-    <sortCondition descending="1" ref="D48:D61"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J15">
+    <sortCondition descending="1" ref="B2:B15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/balanced_dataset_results_UPDATED.xlsx
+++ b/balanced_dataset_results_UPDATED.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#coding ground\Github\Repos\fraud_detection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aaebd9bc42ac1478/Dokumenty/Edukacja/Data Science/6_DS_Project/Project/03_Coding/fraud_detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11D767D-D93D-48C8-9E06-8FF71280883B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{E11D767D-D93D-48C8-9E06-8FF71280883B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4C6970E-84A0-40CA-9CFA-80B619F70C74}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-1350" windowWidth="28800" windowHeight="11775" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -337,13 +337,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -652,9 +645,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -715,7 +708,7 @@
         <v>0.383087158203125</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -747,7 +740,7 @@
         <v>0.29306674003601069</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -779,7 +772,7 @@
         <v>1.2002706527709959E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -811,7 +804,7 @@
         <v>7.7994539737701416</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -843,7 +836,7 @@
         <v>5.4012060165405273E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -875,7 +868,7 @@
         <v>0.53112077713012695</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -907,7 +900,7 @@
         <v>7.7017784118652344E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -939,7 +932,7 @@
         <v>4.0008783340454102E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -971,7 +964,7 @@
         <v>3.1007289886474609E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1016,9 +1009,9 @@
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
@@ -1082,7 +1075,7 @@
         <v>0.383087158203125</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -1115,7 +1108,7 @@
         <v>0.29306674003601069</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -1148,7 +1141,7 @@
         <v>1.2002706527709959E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -1181,7 +1174,7 @@
         <v>7.7994539737701416</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -1214,7 +1207,7 @@
         <v>5.4012060165405273E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -1247,7 +1240,7 @@
         <v>0.53112077713012695</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="1" t="s">
         <v>15</v>
@@ -1280,7 +1273,7 @@
         <v>7.7017784118652344E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -1313,7 +1306,7 @@
         <v>4.0008783340454102E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -1346,7 +1339,7 @@
         <v>3.1007289886474609E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="1" t="s">
         <v>18</v>
@@ -1379,7 +1372,7 @@
         <v>3.2007455825805657E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
@@ -1414,7 +1407,7 @@
         <v>0.40109086036682129</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="1" t="s">
         <v>22</v>
@@ -1447,7 +1440,7 @@
         <v>0.34207820892333979</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
         <v>23</v>
@@ -1480,7 +1473,7 @@
         <v>1.10018253326416E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="1" t="s">
         <v>24</v>
@@ -1513,7 +1506,7 @@
         <v>0.35908150672912598</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="1" t="s">
         <v>25</v>
@@ -1546,7 +1539,7 @@
         <v>0.28206443786621088</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="1" t="s">
         <v>26</v>
@@ -1579,7 +1572,7 @@
         <v>1.100254058837891E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="1" t="s">
         <v>27</v>
@@ -1612,7 +1605,7 @@
         <v>0.39809083938598627</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="1" t="s">
         <v>28</v>
@@ -1645,7 +1638,7 @@
         <v>0.33907699584960938</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="1" t="s">
         <v>29</v>
@@ -1678,7 +1671,7 @@
         <v>1.100277900695801E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="1" t="s">
         <v>30</v>
@@ -1711,7 +1704,7 @@
         <v>0.36808395385742188</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="1" t="s">
         <v>31</v>
@@ -1744,7 +1737,7 @@
         <v>0.28406572341918951</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="1" t="s">
         <v>32</v>
@@ -1777,7 +1770,7 @@
         <v>1.1002302169799799E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>33</v>
       </c>
@@ -1812,7 +1805,7 @@
         <v>0.46810579299926758</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="1" t="s">
         <v>10</v>
@@ -1845,7 +1838,7 @@
         <v>0.47099637985229492</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="1" t="s">
         <v>11</v>
@@ -1878,7 +1871,7 @@
         <v>1.3003110885620121E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="1" t="s">
         <v>12</v>
@@ -1911,7 +1904,7 @@
         <v>15.430972099304199</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="1" t="s">
         <v>13</v>
@@ -1944,7 +1937,7 @@
         <v>5.5012226104736328E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="1" t="s">
         <v>14</v>
@@ -1977,7 +1970,7 @@
         <v>0.5391232967376709</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="1" t="s">
         <v>15</v>
@@ -2010,7 +2003,7 @@
         <v>8.6019277572631836E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="1" t="s">
         <v>16</v>
@@ -2043,7 +2036,7 @@
         <v>4.7031164169311523E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="1" t="s">
         <v>17</v>
@@ -2076,7 +2069,7 @@
         <v>3.4007549285888672E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="1" t="s">
         <v>18</v>
@@ -2109,7 +2102,7 @@
         <v>3.3007383346557617E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>34</v>
       </c>
@@ -2144,7 +2137,7 @@
         <v>0.3140714168548584</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="1" t="s">
         <v>10</v>
@@ -2177,7 +2170,7 @@
         <v>0.32007265090942377</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="1" t="s">
         <v>11</v>
@@ -2210,7 +2203,7 @@
         <v>1.100254058837891E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="1" t="s">
         <v>12</v>
@@ -2243,7 +2236,7 @@
         <v>14.614700794219971</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="1" t="s">
         <v>13</v>
@@ -2276,7 +2269,7 @@
         <v>5.5012702941894531E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
       <c r="B39" s="1" t="s">
         <v>14</v>
@@ -2309,7 +2302,7 @@
         <v>0.50911545753479004</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="1" t="s">
         <v>15</v>
@@ -2342,7 +2335,7 @@
         <v>7.3016881942749023E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="1" t="s">
         <v>16</v>
@@ -2375,7 +2368,7 @@
         <v>3.8009405136108398E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="1" t="s">
         <v>17</v>
@@ -2408,7 +2401,7 @@
         <v>3.2007217407226563E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="1" t="s">
         <v>18</v>
@@ -2460,14 +2453,14 @@
       <selection activeCell="A16" sqref="A16:K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
@@ -2487,7 +2480,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2510,7 +2503,7 @@
         <v>0.53429231954790646</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2533,7 +2526,7 @@
         <v>0.91261952146719916</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -2556,7 +2549,7 @@
         <v>5.1847051198963059E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -2579,7 +2572,7 @@
         <v>0.85106382978723405</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -2602,7 +2595,7 @@
         <v>0.69808028329850547</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -2625,7 +2618,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -2648,7 +2641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2671,7 +2664,7 @@
         <v>2829.5603652000432</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
@@ -2694,7 +2687,7 @@
         <v>0.1520347595214844</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -2717,7 +2710,7 @@
         <v>0.14903450012207031</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2749,7 +2742,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -2784,7 +2777,7 @@
         <v>1.10015869140625E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -2819,7 +2812,7 @@
         <v>74.969163417816162</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -2854,7 +2847,7 @@
         <v>6.3014507293701172E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -2889,7 +2882,7 @@
         <v>1.032234668731689</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -2924,7 +2917,7 @@
         <v>5.9012651443481452E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -2972,22 +2965,22 @@
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3016,7 +3009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>AVERAGE(D3:D12)</f>
         <v>0.76506404331409994</v>
@@ -3058,7 +3051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -3096,7 +3089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>33</v>
       </c>
@@ -3134,7 +3127,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
@@ -3172,7 +3165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>33</v>
       </c>
@@ -3210,7 +3203,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
@@ -3248,7 +3241,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
@@ -3286,7 +3279,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
@@ -3324,7 +3317,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -3359,7 +3352,7 @@
         <v>0.39809083938598627</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3394,7 +3387,7 @@
         <v>4.0008783340454102E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>AVERAGE(D13:D22)</f>
         <v>0.73055183944449764</v>
@@ -3433,7 +3426,7 @@
         <v>3.4007549285888672E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -3468,7 +3461,7 @@
         <v>4.7031164169311523E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
@@ -3503,7 +3496,7 @@
         <v>1.3003110885620121E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
@@ -3538,7 +3531,7 @@
         <v>0.3140714168548584</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
@@ -3573,7 +3566,7 @@
         <v>0.40109086036682129</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
@@ -3608,7 +3601,7 @@
         <v>3.5007953643798828E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3643,7 +3636,7 @@
         <v>0.36808395385742188</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3678,7 +3671,7 @@
         <v>0.35908150672912598</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
@@ -3713,7 +3706,7 @@
         <v>0.383087158203125</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
@@ -3748,7 +3741,7 @@
         <v>3.1007289886474609E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>AVERAGE(D23:D34)</f>
         <v>0.64199376937573627</v>
@@ -3787,7 +3780,7 @@
         <v>0.32007265090942377</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
@@ -3822,7 +3815,7 @@
         <v>7.7994539737701416</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
@@ -3857,7 +3850,7 @@
         <v>3.2007455825805657E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
@@ -3892,7 +3885,7 @@
         <v>0.50911545753479004</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
@@ -3927,7 +3920,7 @@
         <v>0.5391232967376709</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
@@ -3962,7 +3955,7 @@
         <v>0.53112077713012695</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
@@ -3997,7 +3990,7 @@
         <v>3.3007383346557617E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>20</v>
       </c>
@@ -4032,7 +4025,7 @@
         <v>0.28406572341918951</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>20</v>
       </c>
@@ -4067,7 +4060,7 @@
         <v>0.28206443786621088</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>19</v>
       </c>
@@ -4102,7 +4095,7 @@
         <v>1.2002706527709959E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
@@ -4137,7 +4130,7 @@
         <v>0.29306674003601069</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
@@ -4172,7 +4165,7 @@
         <v>1.100254058837891E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>AVERAGE(D35:D44)</f>
         <v>0.35857142738267272</v>
@@ -4211,7 +4204,7 @@
         <v>0.33907699584960938</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>20</v>
       </c>
@@ -4246,7 +4239,7 @@
         <v>0.34207820892333979</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>33</v>
       </c>
@@ -4281,7 +4274,7 @@
         <v>8.6019277572631836E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>19</v>
       </c>
@@ -4316,7 +4309,7 @@
         <v>7.7017784118652344E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
@@ -4351,7 +4344,7 @@
         <v>7.3016881942749023E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>19</v>
       </c>
@@ -4386,7 +4379,7 @@
         <v>5.4012060165405273E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>20</v>
       </c>
@@ -4421,7 +4414,7 @@
         <v>1.10018253326416E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>34</v>
       </c>
@@ -4456,7 +4449,7 @@
         <v>5.5012702941894531E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>20</v>
       </c>
@@ -4491,7 +4484,7 @@
         <v>1.100277900695801E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>33</v>
       </c>
@@ -4526,7 +4519,7 @@
         <v>5.5012226104736328E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D47" s="1" t="s">
         <v>0</v>
       </c>
@@ -4558,7 +4551,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B48" s="8"/>
       <c r="C48" s="1" t="s">
         <v>40</v>
@@ -4594,7 +4587,7 @@
         <v>0.14903450012207031</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="10"/>
       <c r="C49" s="4" t="s">
         <v>49</v>
@@ -4627,7 +4620,7 @@
         <v>2785.7766802310939</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10"/>
       <c r="C50" s="3" t="s">
         <v>50</v>
@@ -4660,7 +4653,7 @@
         <v>0.85363626480102539</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="10"/>
       <c r="C51" s="4" t="s">
         <v>53</v>
@@ -4693,7 +4686,7 @@
         <v>6.2342522144317627</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
       <c r="C52" s="6" t="s">
         <v>36</v>
@@ -4729,7 +4722,7 @@
         <v>74.969163417816162</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="8"/>
       <c r="C53" s="6" t="s">
         <v>35</v>
@@ -4765,7 +4758,7 @@
         <v>1.10015869140625E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10"/>
       <c r="C54" s="3" t="s">
         <v>51</v>
@@ -4798,7 +4791,7 @@
         <v>1.173768281936646</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="8"/>
       <c r="C55" s="1" t="s">
         <v>37</v>
@@ -4834,7 +4827,7 @@
         <v>6.3014507293701172E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10"/>
       <c r="C56" s="3" t="s">
         <v>48</v>
@@ -4867,7 +4860,7 @@
         <v>10.52744150161743</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="10"/>
       <c r="C57" s="3" t="s">
         <v>52</v>
@@ -4900,7 +4893,7 @@
         <v>1.2859871387481689</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="8"/>
       <c r="C58" s="1" t="s">
         <v>38</v>
@@ -4936,7 +4929,7 @@
         <v>1.032234668731689</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="10"/>
       <c r="C59" s="3" t="s">
         <v>55</v>
@@ -4969,7 +4962,7 @@
         <v>1.090114831924438</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B60" s="10"/>
       <c r="C60" s="3" t="s">
         <v>54</v>
@@ -5002,7 +4995,7 @@
         <v>0.33799505233764648</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="8"/>
       <c r="C61" s="1" t="s">
         <v>39</v>
@@ -5038,10 +5031,10 @@
         <v>5.9012651443481452E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C62" s="7"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C63" s="7"/>
     </row>
   </sheetData>
@@ -5057,22 +5050,22 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A4" sqref="A4:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5101,103 +5094,103 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2">
         <v>0.79741727199354318</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2">
         <v>0.90379636873323299</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2">
         <v>0.59375</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2">
         <v>0.80851063829787229</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2">
         <v>0.77776653446199817</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2">
         <v>52</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2">
         <v>18</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2">
         <v>204.73599044481909</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2">
         <v>6.2342522144317627</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3">
         <v>0.79046836483155314</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3">
         <v>0.89352876158126815</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3">
         <v>0.88095238095238093</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3">
         <v>0.78723404255319152</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3">
         <v>0.80511414406811932</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3">
         <v>20</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3">
         <v>628.83125205039983</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3">
         <v>1.173768281936646</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="16">
-        <v>0.77978635990139689</v>
-      </c>
-      <c r="C4" s="16">
-        <v>0.88820078667556523</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0.86904761904761907</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="B4">
+        <v>0.78010686395396633</v>
+      </c>
+      <c r="C4">
+        <v>0.88820961264509801</v>
+      </c>
+      <c r="D4">
+        <v>0.87951807228915657</v>
+      </c>
+      <c r="E4">
         <v>0.77659574468085102</v>
       </c>
-      <c r="F4" s="16">
-        <v>0.80735210915347733</v>
-      </c>
-      <c r="G4" s="16">
-        <v>11</v>
-      </c>
-      <c r="H4" s="16">
+      <c r="F4">
+        <v>0.80683498090524919</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
         <v>21</v>
       </c>
-      <c r="I4" s="16">
-        <v>1341.127286195755</v>
-      </c>
-      <c r="J4" s="16">
-        <v>10.52744150161743</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>1083.818585634232</v>
+      </c>
+      <c r="J4">
+        <v>8.5441548824310303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
@@ -5229,135 +5222,135 @@
         <v>1.2859871387481689</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6">
         <v>0.77442414614773636</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6">
         <v>0.89811535504621998</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6">
         <v>0.44642857142857151</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6">
         <v>0.7978723404255319</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6">
         <v>0.6929470987941333</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6">
         <v>93</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6">
         <v>19</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6">
         <v>797.83375072479248</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6">
         <v>1.300382614135742E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7">
         <v>0.76411446249033255</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7">
         <v>0.90284316402369558</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7">
         <v>0.32203389830508472</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7">
         <v>0.80851063829787229</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7">
         <v>0.63109300844688321</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7">
         <v>160</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7">
         <v>18</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7">
         <v>6471.1831476688394</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7">
         <v>74.701642036437988</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8">
         <v>0.76379515680825727</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8">
         <v>0.89277855417098428</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8">
         <v>0.43786982248520712</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8">
         <v>0.78723404255319152</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8">
         <v>0.74267613697109314</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8">
         <v>95</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8">
         <v>20</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8">
         <v>4459.9327099323273</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8">
         <v>7.8017473220825195E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9">
         <v>0.75689981096408332</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9">
         <v>0.90765040672696617</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9">
         <v>0.26101694915254242</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9">
         <v>0.81914893617021278</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9">
         <v>0.80113338016704927</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9">
         <v>218</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9">
         <v>17</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9">
         <v>621.48497343063354</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9">
         <v>2785.7766802310939</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>55</v>
       </c>
@@ -5389,7 +5382,7 @@
         <v>1.090114831924438</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
@@ -5421,7 +5414,7 @@
         <v>0.33799505233764648</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -5453,7 +5446,7 @@
         <v>1.028234481811523</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -5485,39 +5478,39 @@
         <v>6.1014413833618157E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14">
         <v>0.63778273335457158</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14">
         <v>0.90329037777778609</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14">
         <v>9.7591888466413187E-2</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14">
         <v>0.81914893617021278</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14">
         <v>0.70210898520029352</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14">
         <v>712</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14">
         <v>17</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14">
         <v>17.717572500705721</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14">
         <v>0.85363626480102539</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>

--- a/balanced_dataset_results_UPDATED.xlsx
+++ b/balanced_dataset_results_UPDATED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#coding ground\Github\Repos\fraud_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11D767D-D93D-48C8-9E06-8FF71280883B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC27458-E229-4812-9788-CF223BA99F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="67">
   <si>
     <t>fbeta</t>
   </si>
@@ -205,13 +205,49 @@
   </si>
   <si>
     <t>rf_class</t>
+  </si>
+  <si>
+    <t>smotenc_xgb</t>
+  </si>
+  <si>
+    <t>smotenc_xgbrf</t>
+  </si>
+  <si>
+    <t>smotenc_ada</t>
+  </si>
+  <si>
+    <t>baseline_mlp</t>
+  </si>
+  <si>
+    <t>class_weight_rf</t>
+  </si>
+  <si>
+    <t>class_weight_brf</t>
+  </si>
+  <si>
+    <t>{0 : 10, 1 : 1}</t>
+  </si>
+  <si>
+    <t>{0 : 0.1, 1 : 0.9}</t>
+  </si>
+  <si>
+    <t>smotenc_mlp</t>
+  </si>
+  <si>
+    <t>smotenc_knn</t>
+  </si>
+  <si>
+    <t>smotenc_lr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,8 +268,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +303,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -339,13 +417,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2968,12 +3069,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD01605-4AAB-4FF0-9739-8536CB6D4A68}">
   <dimension ref="A2:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
@@ -3019,78 +3121,78 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>AVERAGE(D3:D12)</f>
-        <v>0.76506404331409994</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="11" t="s">
+        <v>0.64111969049316364</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>0.78498572011423906</v>
+        <v>0.77327153341058319</v>
       </c>
       <c r="E3">
-        <v>0.89337872009921138</v>
+        <v>0.90814466102080038</v>
       </c>
       <c r="F3">
-        <v>0.73267326732673266</v>
+        <v>0.32217573221757317</v>
       </c>
       <c r="G3">
-        <v>0.78723404255319152</v>
+        <v>0.81914893617021278</v>
       </c>
       <c r="H3">
-        <v>0.798396406951702</v>
-      </c>
-      <c r="I3" s="12">
-        <v>27</v>
-      </c>
-      <c r="J3" s="12">
-        <v>20</v>
+        <v>0.63567870312283647</v>
+      </c>
+      <c r="I3">
+        <v>162</v>
+      </c>
+      <c r="J3" s="10">
+        <v>17</v>
       </c>
       <c r="K3">
         <v>0.1100254058837891</v>
       </c>
       <c r="L3">
-        <v>14.614700794219971</v>
+        <v>15.430972099304199</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>32</v>
+      <c r="B4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>0.77691363078182563</v>
+        <v>0.77132262051915945</v>
       </c>
       <c r="E4">
-        <v>0.88812135294977046</v>
+        <v>0.88293459355659154</v>
       </c>
       <c r="F4">
-        <v>0.78494623655913975</v>
+        <v>0.93506493506493504</v>
       </c>
       <c r="G4">
-        <v>0.77659574468085102</v>
+        <v>0.76595744680851063</v>
       </c>
       <c r="H4">
-        <v>0.69266409513752059</v>
-      </c>
-      <c r="I4" s="12">
-        <v>20</v>
-      </c>
-      <c r="J4" s="12">
-        <v>21</v>
+        <v>0.79517925129512146</v>
+      </c>
+      <c r="I4" s="10">
+        <v>5</v>
+      </c>
+      <c r="J4" s="10">
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>1.4698657989501951</v>
+        <v>197.24812626838681</v>
       </c>
       <c r="L4">
-        <v>1.1002302169799799E-2</v>
+        <v>0.46810579299926758</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>52</v>
@@ -3101,110 +3203,110 @@
         <v>33</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>0.77327153341058319</v>
+        <v>0.77132262051915945</v>
       </c>
       <c r="E5">
-        <v>0.90814466102080038</v>
+        <v>0.88293459355659154</v>
       </c>
       <c r="F5">
-        <v>0.32217573221757317</v>
+        <v>0.93506493506493504</v>
       </c>
       <c r="G5">
-        <v>0.81914893617021278</v>
+        <v>0.76595744680851063</v>
       </c>
       <c r="H5">
-        <v>0.63567870312283647</v>
-      </c>
-      <c r="I5">
-        <v>162</v>
+        <v>0.7956550709889284</v>
+      </c>
+      <c r="I5" s="10">
+        <v>5</v>
       </c>
       <c r="J5" s="10">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.1100254058837891</v>
+        <v>220.9957971572876</v>
       </c>
       <c r="L5">
-        <v>15.430972099304199</v>
+        <v>0.47099637985229492</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>9</v>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>0.77132262051915945</v>
+        <v>0.74743326488706363</v>
       </c>
       <c r="E6">
-        <v>0.88293459355659154</v>
+        <v>0.8722080359889236</v>
       </c>
       <c r="F6">
-        <v>0.93506493506493504</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="G6">
-        <v>0.76595744680851063</v>
+        <v>0.74468085106382975</v>
       </c>
       <c r="H6">
-        <v>0.79517925129512146</v>
+        <v>0.75430066832260534</v>
       </c>
       <c r="I6" s="10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J6" s="10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>197.24812626838681</v>
+        <v>23.76895976066589</v>
       </c>
       <c r="L6">
-        <v>0.46810579299926758</v>
+        <v>3.4007549285888672E-2</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>10</v>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>0.77132262051915945</v>
+        <v>0.74468085106382975</v>
       </c>
       <c r="E7">
-        <v>0.88293459355659154</v>
+        <v>0.87212860226312883</v>
       </c>
       <c r="F7">
-        <v>0.93506493506493504</v>
+        <v>0.74468085106382975</v>
       </c>
       <c r="G7">
-        <v>0.76595744680851063</v>
+        <v>0.74468085106382975</v>
       </c>
       <c r="H7">
-        <v>0.7956550709889284</v>
+        <v>0.7416169653365382</v>
       </c>
       <c r="I7" s="10">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J7" s="10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>220.9957971572876</v>
+        <v>19.885426044464111</v>
       </c>
       <c r="L7">
-        <v>0.47099637985229492</v>
+        <v>4.7031164169311523E-2</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>37</v>
@@ -3212,37 +3314,37 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>0.76564417177914101</v>
+        <v>0.74225975070365902</v>
       </c>
       <c r="E8">
-        <v>0.88277572610500199</v>
+        <v>0.87707706047892342</v>
       </c>
       <c r="F8">
-        <v>0.75789473684210529</v>
+        <v>0.51824817518248179</v>
       </c>
       <c r="G8">
-        <v>0.76595744680851063</v>
+        <v>0.75531914893617025</v>
       </c>
       <c r="H8">
-        <v>0.68556416972370993</v>
-      </c>
-      <c r="I8">
+        <v>0.6529289272415072</v>
+      </c>
+      <c r="I8" s="10">
+        <v>66</v>
+      </c>
+      <c r="J8" s="10">
         <v>23</v>
       </c>
-      <c r="J8">
-        <v>22</v>
-      </c>
       <c r="K8">
-        <v>1.432325124740601</v>
+        <v>3.0191688537597661</v>
       </c>
       <c r="L8">
-        <v>1.100254058837891E-2</v>
+        <v>1.3003110885620121E-2</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>35</v>
@@ -3250,37 +3352,37 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>0.75717801476620183</v>
+        <v>0.67357512953367882</v>
       </c>
       <c r="E9">
-        <v>0.8775095329860283</v>
+        <v>0.89478796453237197</v>
       </c>
       <c r="F9">
-        <v>0.80681818181818177</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="G9">
-        <v>0.75531914893617025</v>
+        <v>0.7978723404255319</v>
       </c>
       <c r="H9">
-        <v>0.74141159580753324</v>
+        <v>0.58518745620898849</v>
       </c>
       <c r="I9">
-        <v>17</v>
-      </c>
-      <c r="J9">
-        <v>23</v>
+        <v>470</v>
+      </c>
+      <c r="J9" s="10">
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>24.950268507003781</v>
+        <v>93.193948745727539</v>
       </c>
       <c r="L9">
-        <v>3.8009405136108398E-2</v>
+        <v>0.5391232967376709</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>38</v>
@@ -3288,37 +3390,37 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>0.75051546391752577</v>
+        <v>0.66087516087516085</v>
       </c>
       <c r="E10">
-        <v>0.87229629568425104</v>
+        <v>0.91421993264470736</v>
       </c>
       <c r="F10">
-        <v>0.93333333333333335</v>
+        <v>0.104221635883905</v>
       </c>
       <c r="G10">
-        <v>0.74468085106382975</v>
+        <v>0.84042553191489366</v>
       </c>
       <c r="H10">
-        <v>0.79148001643310684</v>
+        <v>0.6854657457575305</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>679</v>
       </c>
       <c r="J10">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K10">
-        <v>14.24628615379333</v>
+        <v>21.621878147125241</v>
       </c>
       <c r="L10">
-        <v>3.2007217407226563E-2</v>
+        <v>3.3007383346557617E-2</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>40</v>
@@ -3326,181 +3428,181 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>0.75051546391752577</v>
+        <v>0.4150702426564496</v>
       </c>
       <c r="E11">
-        <v>0.87229629568425104</v>
+        <v>0.75949683711053528</v>
       </c>
       <c r="F11">
-        <v>0.93333333333333335</v>
+        <v>6.3938618925831206E-2</v>
       </c>
       <c r="G11">
-        <v>0.74468085106382975</v>
+        <v>0.53191489361702127</v>
       </c>
       <c r="H11">
-        <v>0.78138405242704723</v>
+        <v>0.35466371988436651</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>732</v>
       </c>
       <c r="J11">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>111.7752957344055</v>
+        <v>0.64314603805541992</v>
       </c>
       <c r="L11">
-        <v>0.39809083938598627</v>
+        <v>8.6019277572631836E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>0.74897119341563789</v>
+        <v>0.1113857307628934</v>
       </c>
       <c r="E12">
-        <v>0.87225216583658738</v>
+        <v>0.69066610530996619</v>
       </c>
       <c r="F12">
-        <v>0.875</v>
+        <v>5.3126277073968116E-3</v>
       </c>
       <c r="G12">
-        <v>0.74468085106382975</v>
+        <v>0.55319148936170215</v>
       </c>
       <c r="H12">
-        <v>0.7965227694974365</v>
-      </c>
-      <c r="I12" s="10">
-        <v>10</v>
-      </c>
-      <c r="J12" s="10">
-        <v>24</v>
+        <v>0.26324441508566632</v>
+      </c>
+      <c r="I12">
+        <v>9736</v>
+      </c>
+      <c r="J12">
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>21.535562515258789</v>
+        <v>0.30907011032104492</v>
       </c>
       <c r="L12">
-        <v>4.0008783340454102E-2</v>
+        <v>5.5012226104736328E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>AVERAGE(D13:D22)</f>
-        <v>0.73055183944449764</v>
+        <v>0.63957814286311732</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>0.74743326488706363</v>
+        <v>0.78498572011423906</v>
       </c>
       <c r="E13">
-        <v>0.8722080359889236</v>
+        <v>0.89337872009921138</v>
       </c>
       <c r="F13">
-        <v>0.82352941176470584</v>
+        <v>0.73267326732673266</v>
       </c>
       <c r="G13">
-        <v>0.74468085106382975</v>
+        <v>0.78723404255319152</v>
       </c>
       <c r="H13">
-        <v>0.75430066832260534</v>
-      </c>
-      <c r="I13" s="10">
-        <v>15</v>
-      </c>
-      <c r="J13" s="10">
-        <v>24</v>
+        <v>0.798396406951702</v>
+      </c>
+      <c r="I13" s="12">
+        <v>27</v>
+      </c>
+      <c r="J13" s="12">
+        <v>20</v>
       </c>
       <c r="K13">
-        <v>23.76895976066589</v>
+        <v>0.1100254058837891</v>
       </c>
       <c r="L13">
-        <v>3.4007549285888672E-2</v>
+        <v>14.614700794219971</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D14">
-        <v>0.74468085106382975</v>
+        <v>0.75717801476620183</v>
       </c>
       <c r="E14">
-        <v>0.87212860226312883</v>
+        <v>0.8775095329860283</v>
       </c>
       <c r="F14">
-        <v>0.74468085106382975</v>
+        <v>0.80681818181818177</v>
       </c>
       <c r="G14">
-        <v>0.74468085106382975</v>
+        <v>0.75531914893617025</v>
       </c>
       <c r="H14">
-        <v>0.7416169653365382</v>
-      </c>
-      <c r="I14" s="10">
-        <v>24</v>
-      </c>
-      <c r="J14" s="10">
-        <v>24</v>
+        <v>0.74141159580753324</v>
+      </c>
+      <c r="I14">
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>19.885426044464111</v>
+        <v>24.950268507003781</v>
       </c>
       <c r="L14">
-        <v>4.7031164169311523E-2</v>
+        <v>3.8009405136108398E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>0.74225975070365902</v>
+        <v>0.75051546391752577</v>
       </c>
       <c r="E15">
-        <v>0.87707706047892342</v>
+        <v>0.87229629568425104</v>
       </c>
       <c r="F15">
-        <v>0.51824817518248179</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="G15">
-        <v>0.75531914893617025</v>
+        <v>0.74468085106382975</v>
       </c>
       <c r="H15">
-        <v>0.6529289272415072</v>
-      </c>
-      <c r="I15" s="10">
-        <v>66</v>
-      </c>
-      <c r="J15" s="10">
-        <v>23</v>
+        <v>0.79148001643310684</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>3.0191688537597661</v>
+        <v>14.24628615379333</v>
       </c>
       <c r="L15">
-        <v>1.3003110885620121E-2</v>
+        <v>3.2007217407226563E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -3540,37 +3642,37 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>0.74009900990099009</v>
+        <v>0.72354448919809589</v>
       </c>
       <c r="E17">
-        <v>0.86697714674808091</v>
+        <v>0.9015633984414464</v>
       </c>
       <c r="F17">
-        <v>0.93243243243243246</v>
+        <v>0.1994750656167979</v>
       </c>
       <c r="G17">
-        <v>0.73404255319148937</v>
+        <v>0.80851063829787229</v>
       </c>
       <c r="H17">
-        <v>0.76922045064647449</v>
+        <v>0.72675182306234842</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>305</v>
       </c>
       <c r="J17">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K17">
-        <v>111.02922034263609</v>
+        <v>13.612693309783941</v>
       </c>
       <c r="L17">
-        <v>0.40109086036682129</v>
+        <v>3.5007953643798828E-2</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -3578,423 +3680,429 @@
         <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>0.72354448919809589</v>
+        <v>0.70879801734820325</v>
       </c>
       <c r="E18">
-        <v>0.9015633984414464</v>
+        <v>0.85101969993957027</v>
       </c>
       <c r="F18">
-        <v>0.1994750656167979</v>
+        <v>0.92957746478873238</v>
       </c>
       <c r="G18">
-        <v>0.80851063829787229</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="H18">
-        <v>0.72675182306234842</v>
+        <v>0.79483392623654103</v>
       </c>
       <c r="I18">
-        <v>305</v>
+        <v>5</v>
       </c>
       <c r="J18">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>13.612693309783941</v>
+        <v>98.408937215805054</v>
       </c>
       <c r="L18">
-        <v>3.5007953643798828E-2</v>
+        <v>0.32007265090942377</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>0.71953738124741828</v>
+        <v>0.68040562643114166</v>
       </c>
       <c r="E19">
-        <v>0.85634767484527319</v>
+        <v>0.91999803199658081</v>
       </c>
       <c r="F19">
-        <v>0.94366197183098588</v>
+        <v>0.11315417256011311</v>
       </c>
       <c r="G19">
-        <v>0.71276595744680848</v>
+        <v>0.85106382978723405</v>
       </c>
       <c r="H19">
-        <v>0.78113401203668431</v>
+        <v>0.71836436091500067</v>
       </c>
       <c r="I19">
-        <v>4</v>
-      </c>
-      <c r="J19">
-        <v>27</v>
+        <v>627</v>
+      </c>
+      <c r="J19" s="8">
+        <v>14</v>
       </c>
       <c r="K19">
-        <v>93.146517515182495</v>
+        <v>59.527553558349609</v>
       </c>
       <c r="L19">
-        <v>0.36808395385742188</v>
+        <v>0.50911545753479004</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>0.71924029727497929</v>
+        <v>0.51388541406054544</v>
       </c>
       <c r="E20">
-        <v>0.85633884887574041</v>
+        <v>0.90637364573008994</v>
       </c>
       <c r="F20">
-        <v>0.93055555555555558</v>
+        <v>4.796599878567092E-2</v>
       </c>
       <c r="G20">
-        <v>0.71276595744680848</v>
+        <v>0.84042553191489366</v>
       </c>
       <c r="H20">
-        <v>0.78614400612430047</v>
+        <v>0.7050724203413915</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>1568</v>
       </c>
       <c r="J20">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="K20">
-        <v>88.842020034790039</v>
+        <v>2.842646598815918</v>
       </c>
       <c r="L20">
-        <v>0.35908150672912598</v>
+        <v>1.100254058837891E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>0.71924029727497929</v>
+        <v>0.40158630766019621</v>
       </c>
       <c r="E21">
-        <v>0.85633884887574041</v>
+        <v>0.87272595139256892</v>
       </c>
       <c r="F21">
-        <v>0.93055555555555558</v>
+        <v>3.031544448996313E-2</v>
       </c>
       <c r="G21">
-        <v>0.71276595744680848</v>
+        <v>0.78723404255319152</v>
       </c>
       <c r="H21">
-        <v>0.78470588766634308</v>
+        <v>0.45324129606024061</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>2367</v>
       </c>
       <c r="J21">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K21">
-        <v>101.8953905105591</v>
+        <v>0.56612849235534668</v>
       </c>
       <c r="L21">
-        <v>0.383087158203125</v>
+        <v>7.3016881942749023E-2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>0.7093840429929722</v>
+        <v>0.33478336523403518</v>
       </c>
       <c r="E22">
-        <v>0.85103735187863583</v>
+        <v>0.86428832451925697</v>
       </c>
       <c r="F22">
-        <v>0.95652173913043481</v>
+        <v>2.178392699440683E-2</v>
       </c>
       <c r="G22">
-        <v>0.7021276595744681</v>
+        <v>0.78723404255319152</v>
       </c>
       <c r="H22">
-        <v>0.79434766987778371</v>
+        <v>0.39484174247445553</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>3323</v>
       </c>
       <c r="J22">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K22">
-        <v>8.7549924850463867</v>
+        <v>0.27106142044067377</v>
       </c>
       <c r="L22">
-        <v>3.1007289886474609E-2</v>
+        <v>5.5012702941894531E-2</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>AVERAGE(D23:D34)</f>
-        <v>0.64199376937573627</v>
+        <v>0.6057408932686591</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>0.70879801734820325</v>
+        <v>0.77691363078182563</v>
       </c>
       <c r="E23">
-        <v>0.85101969993957027</v>
+        <v>0.88812135294977046</v>
       </c>
       <c r="F23">
-        <v>0.92957746478873238</v>
+        <v>0.78494623655913975</v>
       </c>
       <c r="G23">
-        <v>0.7021276595744681</v>
+        <v>0.77659574468085102</v>
       </c>
       <c r="H23">
-        <v>0.79483392623654103</v>
-      </c>
-      <c r="I23">
-        <v>5</v>
-      </c>
-      <c r="J23">
-        <v>28</v>
+        <v>0.69266409513752059</v>
+      </c>
+      <c r="I23" s="12">
+        <v>20</v>
+      </c>
+      <c r="J23" s="12">
+        <v>21</v>
       </c>
       <c r="K23">
-        <v>98.408937215805054</v>
+        <v>1.4698657989501951</v>
       </c>
       <c r="L23">
-        <v>0.32007265090942377</v>
+        <v>1.1002302169799799E-2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>0.70850536746490511</v>
+        <v>0.76564417177914101</v>
       </c>
       <c r="E24">
-        <v>0.8510108739700375</v>
+        <v>0.88277572610500199</v>
       </c>
       <c r="F24">
-        <v>0.91666666666666663</v>
+        <v>0.75789473684210529</v>
       </c>
       <c r="G24">
-        <v>0.7021276595744681</v>
+        <v>0.76595744680851063</v>
       </c>
       <c r="H24">
-        <v>0.82512938124889823</v>
+        <v>0.68556416972370993</v>
       </c>
       <c r="I24">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="J24">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K24">
-        <v>6.6014528274536133E-2</v>
+        <v>1.432325124740601</v>
       </c>
       <c r="L24">
-        <v>7.7994539737701416</v>
+        <v>1.100254058837891E-2</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D25">
-        <v>0.70850536746490511</v>
+        <v>0.75051546391752577</v>
       </c>
       <c r="E25">
-        <v>0.8510108739700375</v>
+        <v>0.87229629568425104</v>
       </c>
       <c r="F25">
-        <v>0.91666666666666663</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="G25">
-        <v>0.7021276595744681</v>
+        <v>0.74468085106382975</v>
       </c>
       <c r="H25">
-        <v>0.7610831611649036</v>
+        <v>0.78138405242704723</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J25">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K25">
-        <v>9.6167871952056885</v>
+        <v>111.7752957344055</v>
       </c>
       <c r="L25">
-        <v>3.2007455825805657E-2</v>
+        <v>0.39809083938598627</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="B26" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>0.68040562643114166</v>
+        <v>0.74009900990099009</v>
       </c>
       <c r="E26">
-        <v>0.91999803199658081</v>
+        <v>0.86697714674808091</v>
       </c>
       <c r="F26">
-        <v>0.11315417256011311</v>
+        <v>0.93243243243243246</v>
       </c>
       <c r="G26">
-        <v>0.85106382978723405</v>
+        <v>0.73404255319148937</v>
       </c>
       <c r="H26">
-        <v>0.71836436091500067</v>
+        <v>0.76922045064647449</v>
       </c>
       <c r="I26">
-        <v>627</v>
-      </c>
-      <c r="J26" s="8">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>25</v>
       </c>
       <c r="K26">
-        <v>59.527553558349609</v>
+        <v>111.02922034263609</v>
       </c>
       <c r="L26">
-        <v>0.50911545753479004</v>
+        <v>0.40109086036682129</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>0.67357512953367882</v>
+        <v>0.71953738124741828</v>
       </c>
       <c r="E27">
-        <v>0.89478796453237197</v>
+        <v>0.85634767484527319</v>
       </c>
       <c r="F27">
-        <v>0.1376146788990826</v>
+        <v>0.94366197183098588</v>
       </c>
       <c r="G27">
-        <v>0.7978723404255319</v>
+        <v>0.71276595744680848</v>
       </c>
       <c r="H27">
-        <v>0.58518745620898849</v>
+        <v>0.78113401203668431</v>
       </c>
       <c r="I27">
-        <v>470</v>
-      </c>
-      <c r="J27" s="10">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>27</v>
       </c>
       <c r="K27">
-        <v>93.193948745727539</v>
+        <v>93.146517515182495</v>
       </c>
       <c r="L27">
-        <v>0.5391232967376709</v>
+        <v>0.36808395385742188</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>0.66474226804123693</v>
+        <v>0.71924029727497929</v>
       </c>
       <c r="E28">
-        <v>0.82967249643862739</v>
+        <v>0.85633884887574041</v>
       </c>
       <c r="F28">
-        <v>0.82666666666666666</v>
+        <v>0.93055555555555558</v>
       </c>
       <c r="G28">
-        <v>0.65957446808510634</v>
+        <v>0.71276595744680848</v>
       </c>
       <c r="H28">
-        <v>0.67660906080306793</v>
+        <v>0.78614400612430047</v>
       </c>
       <c r="I28">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J28">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K28">
-        <v>43.961295127868652</v>
+        <v>88.842020034790039</v>
       </c>
       <c r="L28">
-        <v>0.53112077713012695</v>
+        <v>0.35908150672912598</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>0.66087516087516085</v>
+        <v>0.63434727503168564</v>
       </c>
       <c r="E29">
-        <v>0.91421993264470736</v>
+        <v>0.90314033629572932</v>
       </c>
       <c r="F29">
-        <v>0.104221635883905</v>
+        <v>9.553349875930521E-2</v>
       </c>
       <c r="G29">
-        <v>0.84042553191489366</v>
+        <v>0.81914893617021278</v>
       </c>
       <c r="H29">
-        <v>0.6854657457575305</v>
+        <v>0.69718222303740285</v>
       </c>
       <c r="I29">
-        <v>679</v>
+        <v>729</v>
       </c>
       <c r="J29">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K29">
-        <v>21.621878147125241</v>
+        <v>2.8926584720611568</v>
       </c>
       <c r="L29">
-        <v>3.3007383346557617E-2</v>
+        <v>0.28406572341918951</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -4002,34 +4110,34 @@
         <v>20</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D30">
-        <v>0.63434727503168564</v>
+        <v>0.61637931034482751</v>
       </c>
       <c r="E30">
-        <v>0.90314033629572932</v>
+        <v>0.90232834709871601</v>
       </c>
       <c r="F30">
-        <v>9.553349875930521E-2</v>
+        <v>8.5746102449888645E-2</v>
       </c>
       <c r="G30">
         <v>0.81914893617021278</v>
       </c>
       <c r="H30">
-        <v>0.69718222303740285</v>
+        <v>0.70592771733488724</v>
       </c>
       <c r="I30">
-        <v>729</v>
+        <v>821</v>
       </c>
       <c r="J30">
         <v>17</v>
       </c>
       <c r="K30">
-        <v>2.8926584720611568</v>
+        <v>2.9236652851104741</v>
       </c>
       <c r="L30">
-        <v>0.28406572341918951</v>
+        <v>0.28206443786621088</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -4037,248 +4145,248 @@
         <v>20</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D31">
-        <v>0.61637931034482751</v>
+        <v>0.45704240826192039</v>
       </c>
       <c r="E31">
-        <v>0.90232834709871601</v>
+        <v>0.90681203351464756</v>
       </c>
       <c r="F31">
-        <v>8.5746102449888645E-2</v>
+        <v>3.6347114947751023E-2</v>
       </c>
       <c r="G31">
-        <v>0.81914893617021278</v>
+        <v>0.85106382978723405</v>
       </c>
       <c r="H31">
-        <v>0.70592771733488724</v>
+        <v>0.70796092534732558</v>
       </c>
       <c r="I31">
-        <v>821</v>
-      </c>
-      <c r="J31">
-        <v>17</v>
+        <v>2121</v>
+      </c>
+      <c r="J31" s="8">
+        <v>14</v>
       </c>
       <c r="K31">
-        <v>2.9236652851104741</v>
+        <v>2.997742652893066</v>
       </c>
       <c r="L31">
-        <v>0.28206443786621088</v>
+        <v>0.33907699584960938</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>0.58160729080364548</v>
+        <v>0.45594037702761953</v>
       </c>
       <c r="E32">
-        <v>0.78714578285786396</v>
+        <v>0.90671494784978723</v>
       </c>
       <c r="F32">
-        <v>0.84375</v>
+        <v>3.6166365280289332E-2</v>
       </c>
       <c r="G32">
-        <v>0.57446808510638303</v>
+        <v>0.85106382978723405</v>
       </c>
       <c r="H32">
-        <v>0.70288484061290446</v>
+        <v>0.71314521560096855</v>
       </c>
       <c r="I32">
-        <v>10</v>
-      </c>
-      <c r="J32">
-        <v>40</v>
+        <v>2132</v>
+      </c>
+      <c r="J32" s="8">
+        <v>14</v>
       </c>
       <c r="K32">
-        <v>1.439327716827393</v>
+        <v>2.9376683235168461</v>
       </c>
       <c r="L32">
-        <v>1.2002706527709959E-2</v>
+        <v>0.34207820892333979</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>0.55229900510890029</v>
+        <v>0.37049455155071248</v>
       </c>
       <c r="E33">
-        <v>0.90882726526019519</v>
+        <v>0.68083341189072177</v>
       </c>
       <c r="F33">
-        <v>5.7706355003652302E-2</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="G33">
-        <v>0.84042553191489366</v>
+        <v>0.36170212765957449</v>
       </c>
       <c r="H33">
-        <v>0.72018335383560994</v>
+        <v>0.70997312670024693</v>
       </c>
       <c r="I33">
-        <v>1290</v>
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K33">
-        <v>2.8762025833129878</v>
+        <v>1.4233245849609379</v>
       </c>
       <c r="L33">
-        <v>0.29306674003601069</v>
+        <v>1.10018253326416E-2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D34">
-        <v>0.51388541406054544</v>
+        <v>0.26273684210526321</v>
       </c>
       <c r="E34">
-        <v>0.90637364573008994</v>
+        <v>0.62765074849855229</v>
       </c>
       <c r="F34">
-        <v>4.796599878567092E-2</v>
+        <v>0.96</v>
       </c>
       <c r="G34">
-        <v>0.84042553191489366</v>
+        <v>0.25531914893617019</v>
       </c>
       <c r="H34">
-        <v>0.7050724203413915</v>
+        <v>0.67828257945010884</v>
       </c>
       <c r="I34">
-        <v>1568</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="K34">
-        <v>2.842646598815918</v>
+        <v>1.440327644348145</v>
       </c>
       <c r="L34">
-        <v>1.100254058837891E-2</v>
+        <v>1.100277900695801E-2</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>AVERAGE(D35:D44)</f>
-        <v>0.35857142738267272</v>
+        <v>0.61699292811348194</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>0.45704240826192039</v>
+        <v>0.74897119341563789</v>
       </c>
       <c r="E35">
-        <v>0.90681203351464756</v>
+        <v>0.87225216583658738</v>
       </c>
       <c r="F35">
-        <v>3.6347114947751023E-2</v>
+        <v>0.875</v>
       </c>
       <c r="G35">
-        <v>0.85106382978723405</v>
+        <v>0.74468085106382975</v>
       </c>
       <c r="H35">
-        <v>0.70796092534732558</v>
-      </c>
-      <c r="I35">
-        <v>2121</v>
-      </c>
-      <c r="J35" s="8">
-        <v>14</v>
+        <v>0.7965227694974365</v>
+      </c>
+      <c r="I35" s="10">
+        <v>10</v>
+      </c>
+      <c r="J35" s="10">
+        <v>24</v>
       </c>
       <c r="K35">
-        <v>2.997742652893066</v>
+        <v>21.535562515258789</v>
       </c>
       <c r="L35">
-        <v>0.33907699584960938</v>
+        <v>4.0008783340454102E-2</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>0.45594037702761953</v>
+        <v>0.71924029727497929</v>
       </c>
       <c r="E36">
-        <v>0.90671494784978723</v>
+        <v>0.85633884887574041</v>
       </c>
       <c r="F36">
-        <v>3.6166365280289332E-2</v>
+        <v>0.93055555555555558</v>
       </c>
       <c r="G36">
-        <v>0.85106382978723405</v>
+        <v>0.71276595744680848</v>
       </c>
       <c r="H36">
-        <v>0.71314521560096855</v>
+        <v>0.78470588766634308</v>
       </c>
       <c r="I36">
-        <v>2132</v>
-      </c>
-      <c r="J36" s="8">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>27</v>
       </c>
       <c r="K36">
-        <v>2.9376683235168461</v>
+        <v>101.8953905105591</v>
       </c>
       <c r="L36">
-        <v>0.34207820892333979</v>
+        <v>0.383087158203125</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>0.4150702426564496</v>
+        <v>0.7093840429929722</v>
       </c>
       <c r="E37">
-        <v>0.75949683711053528</v>
+        <v>0.85103735187863583</v>
       </c>
       <c r="F37">
-        <v>6.3938618925831206E-2</v>
+        <v>0.95652173913043481</v>
       </c>
       <c r="G37">
-        <v>0.53191489361702127</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="H37">
-        <v>0.35466371988436651</v>
+        <v>0.79434766987778371</v>
       </c>
       <c r="I37">
-        <v>732</v>
+        <v>3</v>
       </c>
       <c r="J37">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="K37">
-        <v>0.64314603805541992</v>
+        <v>8.7549924850463867</v>
       </c>
       <c r="L37">
-        <v>8.6019277572631836E-2</v>
+        <v>3.1007289886474609E-2</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -4286,69 +4394,69 @@
         <v>19</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D38">
-        <v>0.40437158469945361</v>
+        <v>0.70850536746490511</v>
       </c>
       <c r="E38">
-        <v>0.87301720838714991</v>
+        <v>0.8510108739700375</v>
       </c>
       <c r="F38">
-        <v>3.0730897009966781E-2</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="G38">
-        <v>0.78723404255319152</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="H38">
-        <v>0.46449321781846808</v>
+        <v>0.82512938124889823</v>
       </c>
       <c r="I38">
-        <v>2334</v>
+        <v>6</v>
       </c>
       <c r="J38">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K38">
-        <v>0.29106616973876948</v>
+        <v>6.6014528274536133E-2</v>
       </c>
       <c r="L38">
-        <v>7.7017784118652344E-2</v>
+        <v>7.7994539737701416</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D39">
-        <v>0.40158630766019621</v>
+        <v>0.70850536746490511</v>
       </c>
       <c r="E39">
-        <v>0.87272595139256892</v>
+        <v>0.8510108739700375</v>
       </c>
       <c r="F39">
-        <v>3.031544448996313E-2</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="G39">
-        <v>0.78723404255319152</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="H39">
-        <v>0.45324129606024061</v>
+        <v>0.7610831611649036</v>
       </c>
       <c r="I39">
-        <v>2367</v>
+        <v>6</v>
       </c>
       <c r="J39">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K39">
-        <v>0.56612849235534668</v>
+        <v>9.6167871952056885</v>
       </c>
       <c r="L39">
-        <v>7.3016881942749023E-2</v>
+        <v>3.2007455825805657E-2</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -4356,174 +4464,174 @@
         <v>19</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40">
+        <v>0.66474226804123693</v>
+      </c>
+      <c r="E40">
+        <v>0.82967249643862739</v>
+      </c>
+      <c r="F40">
+        <v>0.82666666666666666</v>
+      </c>
+      <c r="G40">
+        <v>0.65957446808510634</v>
+      </c>
+      <c r="H40">
+        <v>0.67660906080306793</v>
+      </c>
+      <c r="I40">
         <v>13</v>
       </c>
-      <c r="D40">
-        <v>0.37230286386818362</v>
-      </c>
-      <c r="E40">
-        <v>0.86468840384031076</v>
-      </c>
-      <c r="F40">
-        <v>2.656477438136827E-2</v>
-      </c>
-      <c r="G40">
-        <v>0.77659574468085102</v>
-      </c>
-      <c r="H40">
-        <v>0.36178836947339582</v>
-      </c>
-      <c r="I40">
-        <v>2675</v>
-      </c>
       <c r="J40">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="K40">
-        <v>0.1410322189331055</v>
+        <v>43.961295127868652</v>
       </c>
       <c r="L40">
-        <v>5.4012060165405273E-2</v>
+        <v>0.53112077713012695</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D41">
-        <v>0.37049455155071248</v>
+        <v>0.58160729080364548</v>
       </c>
       <c r="E41">
-        <v>0.68083341189072177</v>
+        <v>0.78714578285786396</v>
       </c>
       <c r="F41">
-        <v>0.94444444444444442</v>
+        <v>0.84375</v>
       </c>
       <c r="G41">
-        <v>0.36170212765957449</v>
+        <v>0.57446808510638303</v>
       </c>
       <c r="H41">
-        <v>0.70997312670024693</v>
+        <v>0.70288484061290446</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J41">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K41">
-        <v>1.4233245849609379</v>
+        <v>1.439327716827393</v>
       </c>
       <c r="L41">
-        <v>1.10018253326416E-2</v>
+        <v>1.2002706527709959E-2</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D42">
-        <v>0.33478336523403518</v>
+        <v>0.55229900510890029</v>
       </c>
       <c r="E42">
-        <v>0.86428832451925697</v>
+        <v>0.90882726526019519</v>
       </c>
       <c r="F42">
-        <v>2.178392699440683E-2</v>
+        <v>5.7706355003652302E-2</v>
       </c>
       <c r="G42">
-        <v>0.78723404255319152</v>
+        <v>0.84042553191489366</v>
       </c>
       <c r="H42">
-        <v>0.39484174247445553</v>
+        <v>0.72018335383560994</v>
       </c>
       <c r="I42">
-        <v>3323</v>
+        <v>1290</v>
       </c>
       <c r="J42">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K42">
-        <v>0.27106142044067377</v>
+        <v>2.8762025833129878</v>
       </c>
       <c r="L42">
-        <v>5.5012702941894531E-2</v>
+        <v>0.29306674003601069</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>0.40437158469945361</v>
+      </c>
+      <c r="E43">
+        <v>0.87301720838714991</v>
+      </c>
+      <c r="F43">
+        <v>3.0730897009966781E-2</v>
+      </c>
+      <c r="G43">
+        <v>0.78723404255319152</v>
+      </c>
+      <c r="H43">
+        <v>0.46449321781846808</v>
+      </c>
+      <c r="I43">
+        <v>2334</v>
+      </c>
+      <c r="J43">
         <v>20</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43">
-        <v>0.26273684210526321</v>
-      </c>
-      <c r="E43">
-        <v>0.62765074849855229</v>
-      </c>
-      <c r="F43">
-        <v>0.96</v>
-      </c>
-      <c r="G43">
-        <v>0.25531914893617019</v>
-      </c>
-      <c r="H43">
-        <v>0.67828257945010884</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>70</v>
-      </c>
       <c r="K43">
-        <v>1.440327644348145</v>
+        <v>0.29106616973876948</v>
       </c>
       <c r="L43">
-        <v>1.100277900695801E-2</v>
+        <v>7.7017784118652344E-2</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D44">
-        <v>0.1113857307628934</v>
+        <v>0.37230286386818362</v>
       </c>
       <c r="E44">
-        <v>0.69066610530996619</v>
+        <v>0.86468840384031076</v>
       </c>
       <c r="F44">
-        <v>5.3126277073968116E-3</v>
+        <v>2.656477438136827E-2</v>
       </c>
       <c r="G44">
-        <v>0.55319148936170215</v>
+        <v>0.77659574468085102</v>
       </c>
       <c r="H44">
-        <v>0.26324441508566632</v>
+        <v>0.36178836947339582</v>
       </c>
       <c r="I44">
-        <v>9736</v>
+        <v>2675</v>
       </c>
       <c r="J44">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="K44">
-        <v>0.30907011032104492</v>
+        <v>0.1410322189331055</v>
       </c>
       <c r="L44">
-        <v>5.5012226104736328E-2</v>
+        <v>5.4012060165405273E-2</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -5046,26 +5154,29 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:L44">
-    <sortCondition descending="1" ref="D3:D44"/>
+    <sortCondition descending="1" ref="B3:B44"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402F7E11-1355-4E9D-BD83-254983E0A558}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
@@ -5102,98 +5213,98 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2">
         <v>0.79741727199354318</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2">
         <v>0.90379636873323299</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2">
         <v>0.59375</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2">
         <v>0.80851063829787229</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2">
         <v>0.77776653446199817</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2">
         <v>52</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2">
         <v>18</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2">
         <v>204.73599044481909</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2">
         <v>6.2342522144317627</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3">
         <v>0.79046836483155314</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3">
         <v>0.89352876158126815</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3">
         <v>0.88095238095238093</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3">
         <v>0.78723404255319152</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3">
         <v>0.80511414406811932</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3">
         <v>20</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3">
         <v>628.83125205039983</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3">
         <v>1.173768281936646</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4">
         <v>0.77978635990139689</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4">
         <v>0.88820078667556523</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4">
         <v>0.86904761904761907</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4">
         <v>0.77659574468085102</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4">
         <v>0.80735210915347733</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4">
         <v>11</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4">
         <v>21</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4">
         <v>1341.127286195755</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4">
         <v>10.52744150161743</v>
       </c>
     </row>
@@ -5230,136 +5341,136 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6">
         <v>0.77442414614773636</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6">
         <v>0.89811535504621998</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6">
         <v>0.44642857142857151</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6">
         <v>0.7978723404255319</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6">
         <v>0.6929470987941333</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6">
         <v>93</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6">
         <v>19</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6">
         <v>797.83375072479248</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6">
         <v>1.300382614135742E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7">
         <v>0.76411446249033255</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7">
         <v>0.90284316402369558</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7">
         <v>0.32203389830508472</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7">
         <v>0.80851063829787229</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7">
         <v>0.63109300844688321</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7">
         <v>160</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7">
         <v>18</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7">
         <v>6471.1831476688394</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7">
         <v>74.701642036437988</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8">
         <v>0.76379515680825727</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8">
         <v>0.89277855417098428</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8">
         <v>0.43786982248520712</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8">
         <v>0.78723404255319152</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8">
         <v>0.74267613697109314</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8">
         <v>95</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8">
         <v>20</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8">
         <v>4459.9327099323273</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8">
         <v>7.8017473220825195E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9">
         <v>0.75689981096408332</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9">
         <v>0.90765040672696617</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9">
         <v>0.26101694915254242</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9">
         <v>0.81914893617021278</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9">
         <v>0.80113338016704927</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9">
         <v>218</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9">
         <v>17</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9">
         <v>621.48497343063354</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9">
         <v>2785.7766802310939</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>0.75051546391752577</v>
@@ -5391,7 +5502,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B11">
         <v>0.74743326488706363</v>
@@ -5423,7 +5534,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>0.7290679304897314</v>
@@ -5455,7 +5566,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B13">
         <v>0.71232876712328763</v>
@@ -5486,40 +5597,40 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="16">
+      <c r="A14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14">
         <v>0.63778273335457158</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14">
         <v>0.90329037777778609</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14">
         <v>9.7591888466413187E-2</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14">
         <v>0.81914893617021278</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14">
         <v>0.70210898520029352</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14">
         <v>712</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14">
         <v>17</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14">
         <v>17.717572500705721</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14">
         <v>0.85363626480102539</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>0.53429231954790646</v>
@@ -5549,10 +5660,802 @@
         <v>0.1520347595214844</v>
       </c>
     </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="20">
+        <v>0.79046836483155314</v>
+      </c>
+      <c r="E22" s="16">
+        <v>10</v>
+      </c>
+      <c r="F22" s="16">
+        <v>20</v>
+      </c>
+      <c r="G22" s="17">
+        <v>628.83125205039983</v>
+      </c>
+      <c r="H22" s="17">
+        <v>1.173768281936646</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="20">
+        <v>0.7794661190965092</v>
+      </c>
+      <c r="E23" s="16">
+        <v>12</v>
+      </c>
+      <c r="F23" s="16">
+        <v>21</v>
+      </c>
+      <c r="G23" s="17">
+        <v>589.43659858703609</v>
+      </c>
+      <c r="H23" s="17">
+        <v>1.2859871387481689</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="20">
+        <v>0.7290679304897314</v>
+      </c>
+      <c r="E24" s="16">
+        <v>111</v>
+      </c>
+      <c r="F24" s="16">
+        <v>23</v>
+      </c>
+      <c r="G24" s="17">
+        <v>3029.172640562057</v>
+      </c>
+      <c r="H24" s="17">
+        <v>1.028234481811523</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="20">
+        <v>0.76411446249033255</v>
+      </c>
+      <c r="E25" s="16">
+        <v>160</v>
+      </c>
+      <c r="F25" s="16">
+        <v>18</v>
+      </c>
+      <c r="G25" s="17">
+        <v>6471.1831476688394</v>
+      </c>
+      <c r="H25" s="17">
+        <v>74.701642036437988</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="20">
+        <v>0.77442414614773636</v>
+      </c>
+      <c r="E26" s="16">
+        <v>93</v>
+      </c>
+      <c r="F26" s="16">
+        <v>19</v>
+      </c>
+      <c r="G26" s="17">
+        <v>797.83375072479248</v>
+      </c>
+      <c r="H26" s="17">
+        <v>1.300382614135742E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="20">
+        <v>0.76379515680825727</v>
+      </c>
+      <c r="E27" s="16">
+        <v>95</v>
+      </c>
+      <c r="F27" s="16">
+        <v>20</v>
+      </c>
+      <c r="G27" s="17">
+        <v>4459.9327099323273</v>
+      </c>
+      <c r="H27" s="17">
+        <v>7.8017473220825195E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="20">
+        <v>0.71232876712328763</v>
+      </c>
+      <c r="E28" s="16">
+        <v>135</v>
+      </c>
+      <c r="F28" s="16">
+        <v>24</v>
+      </c>
+      <c r="G28" s="17">
+        <v>36006.675769805908</v>
+      </c>
+      <c r="H28" s="17">
+        <v>6.1014413833618157E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="20">
+        <v>0.53429231954790646</v>
+      </c>
+      <c r="E29" s="16">
+        <v>1463</v>
+      </c>
+      <c r="F29" s="16">
+        <v>14</v>
+      </c>
+      <c r="G29" s="17">
+        <v>2829.5603652000432</v>
+      </c>
+      <c r="H29" s="17">
+        <v>0.1520347595214844</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="22">
+        <v>0.63778273335457158</v>
+      </c>
+      <c r="E30" s="22">
+        <v>712</v>
+      </c>
+      <c r="F30" s="24">
+        <v>17</v>
+      </c>
+      <c r="G30" s="23">
+        <v>17.717572500705721</v>
+      </c>
+      <c r="H30" s="23">
+        <v>0.85363626480102539</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="22">
+        <v>0.79741727199354318</v>
+      </c>
+      <c r="E31" s="22">
+        <v>52</v>
+      </c>
+      <c r="F31" s="24">
+        <v>18</v>
+      </c>
+      <c r="G31" s="23">
+        <v>204.73599044481909</v>
+      </c>
+      <c r="H31" s="23">
+        <v>6.2342522144317627</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="22">
+        <v>0.74743326488706363</v>
+      </c>
+      <c r="E32" s="22">
+        <v>15</v>
+      </c>
+      <c r="F32" s="22">
+        <v>24</v>
+      </c>
+      <c r="G32" s="23">
+        <v>39.437344989776612</v>
+      </c>
+      <c r="H32" s="23">
+        <v>0.33799505233764648</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="26">
+        <v>0.77978635990139689</v>
+      </c>
+      <c r="E33" s="26">
+        <v>11</v>
+      </c>
+      <c r="F33" s="26">
+        <v>21</v>
+      </c>
+      <c r="G33" s="27">
+        <v>1341.127286195755</v>
+      </c>
+      <c r="H33" s="27">
+        <v>10.52744150161743</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="26">
+        <v>0.75689981096408332</v>
+      </c>
+      <c r="E34" s="26">
+        <v>218</v>
+      </c>
+      <c r="F34" s="26">
+        <v>17</v>
+      </c>
+      <c r="G34" s="27">
+        <v>621.48497343063354</v>
+      </c>
+      <c r="H34" s="27">
+        <v>2785.7766802310939</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="20">
+        <v>0.79046836483155314</v>
+      </c>
+      <c r="E40" s="16">
+        <v>10</v>
+      </c>
+      <c r="F40" s="16">
+        <v>20</v>
+      </c>
+      <c r="G40" s="17">
+        <v>628.83125205039983</v>
+      </c>
+      <c r="H40" s="17">
+        <v>1.173768281936646</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="20">
+        <v>0.7794661190965092</v>
+      </c>
+      <c r="E41" s="16">
+        <v>12</v>
+      </c>
+      <c r="F41" s="16">
+        <v>21</v>
+      </c>
+      <c r="G41" s="17">
+        <v>589.43659858703609</v>
+      </c>
+      <c r="H41" s="17">
+        <v>1.2859871387481689</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="20">
+        <v>0.7290679304897314</v>
+      </c>
+      <c r="E42" s="16">
+        <v>111</v>
+      </c>
+      <c r="F42" s="16">
+        <v>23</v>
+      </c>
+      <c r="G42" s="17">
+        <v>3029.172640562057</v>
+      </c>
+      <c r="H42" s="17">
+        <v>1.028234481811523</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="20">
+        <v>0.76411446249033255</v>
+      </c>
+      <c r="E43" s="16">
+        <v>160</v>
+      </c>
+      <c r="F43" s="16">
+        <v>18</v>
+      </c>
+      <c r="G43" s="17">
+        <v>6471.1831476688394</v>
+      </c>
+      <c r="H43" s="17">
+        <v>74.701642036437988</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="20">
+        <v>0.77442414614773636</v>
+      </c>
+      <c r="E44" s="16">
+        <v>93</v>
+      </c>
+      <c r="F44" s="16">
+        <v>19</v>
+      </c>
+      <c r="G44" s="17">
+        <v>797.83375072479248</v>
+      </c>
+      <c r="H44" s="17">
+        <v>1.300382614135742E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="20">
+        <v>0.76379515680825727</v>
+      </c>
+      <c r="E45" s="16">
+        <v>95</v>
+      </c>
+      <c r="F45" s="16">
+        <v>20</v>
+      </c>
+      <c r="G45" s="17">
+        <v>4459.9327099323273</v>
+      </c>
+      <c r="H45" s="17">
+        <v>7.8017473220825195E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="20">
+        <v>0.71232876712328763</v>
+      </c>
+      <c r="E46" s="16">
+        <v>135</v>
+      </c>
+      <c r="F46" s="16">
+        <v>24</v>
+      </c>
+      <c r="G46" s="17">
+        <v>36006.675769805908</v>
+      </c>
+      <c r="H46" s="17">
+        <v>6.1014413833618157E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="20">
+        <v>0.53429231954790646</v>
+      </c>
+      <c r="E47" s="16">
+        <v>1463</v>
+      </c>
+      <c r="F47" s="16">
+        <v>14</v>
+      </c>
+      <c r="G47" s="17">
+        <v>2829.5603652000432</v>
+      </c>
+      <c r="H47" s="17">
+        <v>0.1520347595214844</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="22">
+        <v>0.63778273335457158</v>
+      </c>
+      <c r="E48" s="22">
+        <v>712</v>
+      </c>
+      <c r="F48" s="24">
+        <v>17</v>
+      </c>
+      <c r="G48" s="23">
+        <v>17.717572500705721</v>
+      </c>
+      <c r="H48" s="23">
+        <v>0.85363626480102539</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="22">
+        <v>0.79741727199354318</v>
+      </c>
+      <c r="E49" s="22">
+        <v>52</v>
+      </c>
+      <c r="F49" s="24">
+        <v>18</v>
+      </c>
+      <c r="G49" s="23">
+        <v>204.73599044481909</v>
+      </c>
+      <c r="H49" s="23">
+        <v>6.2342522144317627</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="26">
+        <v>0.77978635990139689</v>
+      </c>
+      <c r="E50" s="26">
+        <v>11</v>
+      </c>
+      <c r="F50" s="26">
+        <v>21</v>
+      </c>
+      <c r="G50" s="27">
+        <v>1341.127286195755</v>
+      </c>
+      <c r="H50" s="27">
+        <v>10.52744150161743</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="26">
+        <v>0.75689981096408332</v>
+      </c>
+      <c r="E51" s="26">
+        <v>218</v>
+      </c>
+      <c r="F51" s="26">
+        <v>17</v>
+      </c>
+      <c r="G51" s="27">
+        <v>621.48497343063354</v>
+      </c>
+      <c r="H51" s="27">
+        <v>2785.7766802310939</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="24">
+        <v>0.79741727199354318</v>
+      </c>
+      <c r="E56" s="24">
+        <v>52</v>
+      </c>
+      <c r="F56" s="24">
+        <v>18</v>
+      </c>
+      <c r="G56" s="30">
+        <v>204.73599044481909</v>
+      </c>
+      <c r="H56" s="30">
+        <v>6.2342522144317627</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="16">
+        <v>0.79046836483155314</v>
+      </c>
+      <c r="E57" s="16">
+        <v>10</v>
+      </c>
+      <c r="F57" s="16">
+        <v>20</v>
+      </c>
+      <c r="G57" s="17">
+        <v>628.83125205039983</v>
+      </c>
+      <c r="H57" s="17">
+        <v>1.173768281936646</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="26">
+        <v>0.77978635990139689</v>
+      </c>
+      <c r="E58" s="26">
+        <v>11</v>
+      </c>
+      <c r="F58" s="26">
+        <v>21</v>
+      </c>
+      <c r="G58" s="27">
+        <v>1341.127286195755</v>
+      </c>
+      <c r="H58" s="27">
+        <v>10.52744150161743</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="16">
+        <v>0.7794661190965092</v>
+      </c>
+      <c r="E59" s="16">
+        <v>12</v>
+      </c>
+      <c r="F59" s="16">
+        <v>21</v>
+      </c>
+      <c r="G59" s="17">
+        <v>589.43659858703609</v>
+      </c>
+      <c r="H59" s="17">
+        <v>1.2859871387481689</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="16">
+        <v>0.77442414614773636</v>
+      </c>
+      <c r="E60" s="16">
+        <v>93</v>
+      </c>
+      <c r="F60" s="16">
+        <v>19</v>
+      </c>
+      <c r="G60" s="17">
+        <v>797.83375072479248</v>
+      </c>
+      <c r="H60" s="17">
+        <v>1.300382614135742E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="16">
+        <v>0.76411446249033255</v>
+      </c>
+      <c r="E61" s="16">
+        <v>160</v>
+      </c>
+      <c r="F61" s="16">
+        <v>18</v>
+      </c>
+      <c r="G61" s="17">
+        <v>6471.1831476688394</v>
+      </c>
+      <c r="H61" s="17">
+        <v>74.701642036437988</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="16">
+        <v>0.76379515680825727</v>
+      </c>
+      <c r="E62" s="16">
+        <v>95</v>
+      </c>
+      <c r="F62" s="16">
+        <v>20</v>
+      </c>
+      <c r="G62" s="17">
+        <v>4459.9327099323273</v>
+      </c>
+      <c r="H62" s="17">
+        <v>7.8017473220825195E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C63" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="26">
+        <v>0.75689981096408332</v>
+      </c>
+      <c r="E63" s="26">
+        <v>218</v>
+      </c>
+      <c r="F63" s="26">
+        <v>17</v>
+      </c>
+      <c r="G63" s="27">
+        <v>621.48497343063354</v>
+      </c>
+      <c r="H63" s="27">
+        <v>2785.7766802310939</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C64" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="16">
+        <v>0.7290679304897314</v>
+      </c>
+      <c r="E64" s="16">
+        <v>111</v>
+      </c>
+      <c r="F64" s="16">
+        <v>23</v>
+      </c>
+      <c r="G64" s="17">
+        <v>3029.172640562057</v>
+      </c>
+      <c r="H64" s="17">
+        <v>1.028234481811523</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C65" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" s="16">
+        <v>0.71232876712328763</v>
+      </c>
+      <c r="E65" s="16">
+        <v>135</v>
+      </c>
+      <c r="F65" s="16">
+        <v>24</v>
+      </c>
+      <c r="G65" s="17">
+        <v>36006.675769805908</v>
+      </c>
+      <c r="H65" s="17">
+        <v>6.1014413833618157E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C66" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="22">
+        <v>0.63778273335457158</v>
+      </c>
+      <c r="E66" s="22">
+        <v>712</v>
+      </c>
+      <c r="F66" s="22">
+        <v>17</v>
+      </c>
+      <c r="G66" s="23">
+        <v>17.717572500705721</v>
+      </c>
+      <c r="H66" s="23">
+        <v>0.85363626480102539</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C67" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="16">
+        <v>0.53429231954790646</v>
+      </c>
+      <c r="E67" s="16">
+        <v>1463</v>
+      </c>
+      <c r="F67" s="16">
+        <v>14</v>
+      </c>
+      <c r="G67" s="17">
+        <v>2829.5603652000432</v>
+      </c>
+      <c r="H67" s="17">
+        <v>0.1520347595214844</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J15">
-    <sortCondition descending="1" ref="B2:B15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C56:H67">
+    <sortCondition descending="1" ref="D56:D67"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/balanced_dataset_results_UPDATED.xlsx
+++ b/balanced_dataset_results_UPDATED.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aaebd9bc42ac1478/Dokumenty/Edukacja/Data Science/6_DS_Project/Project/03_Coding/fraud_detection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#coding ground\Github\Repos\fraud_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{E11D767D-D93D-48C8-9E06-8FF71280883B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4C6970E-84A0-40CA-9CFA-80B619F70C74}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB26060-3078-402D-8244-E18A718B9B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1350" windowWidth="28800" windowHeight="11775" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="56">
   <si>
     <t>fbeta</t>
   </si>
@@ -303,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -337,6 +337,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -645,9 +648,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -708,7 +711,7 @@
         <v>0.383087158203125</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -740,7 +743,7 @@
         <v>0.29306674003601069</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -772,7 +775,7 @@
         <v>1.2002706527709959E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -804,7 +807,7 @@
         <v>7.7994539737701416</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -836,7 +839,7 @@
         <v>5.4012060165405273E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -868,7 +871,7 @@
         <v>0.53112077713012695</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -900,7 +903,7 @@
         <v>7.7017784118652344E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -932,7 +935,7 @@
         <v>4.0008783340454102E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -964,7 +967,7 @@
         <v>3.1007289886474609E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1009,9 +1012,9 @@
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
@@ -1075,7 +1078,7 @@
         <v>0.383087158203125</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -1108,7 +1111,7 @@
         <v>0.29306674003601069</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -1141,7 +1144,7 @@
         <v>1.2002706527709959E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -1174,7 +1177,7 @@
         <v>7.7994539737701416</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -1207,7 +1210,7 @@
         <v>5.4012060165405273E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -1240,7 +1243,7 @@
         <v>0.53112077713012695</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="1" t="s">
         <v>15</v>
@@ -1273,7 +1276,7 @@
         <v>7.7017784118652344E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -1306,7 +1309,7 @@
         <v>4.0008783340454102E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -1339,7 +1342,7 @@
         <v>3.1007289886474609E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="1" t="s">
         <v>18</v>
@@ -1372,7 +1375,7 @@
         <v>3.2007455825805657E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
@@ -1407,7 +1410,7 @@
         <v>0.40109086036682129</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="1" t="s">
         <v>22</v>
@@ -1440,7 +1443,7 @@
         <v>0.34207820892333979</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
         <v>23</v>
@@ -1473,7 +1476,7 @@
         <v>1.10018253326416E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="1" t="s">
         <v>24</v>
@@ -1506,7 +1509,7 @@
         <v>0.35908150672912598</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="1" t="s">
         <v>25</v>
@@ -1539,7 +1542,7 @@
         <v>0.28206443786621088</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="1" t="s">
         <v>26</v>
@@ -1572,7 +1575,7 @@
         <v>1.100254058837891E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="1" t="s">
         <v>27</v>
@@ -1605,7 +1608,7 @@
         <v>0.39809083938598627</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="1" t="s">
         <v>28</v>
@@ -1638,7 +1641,7 @@
         <v>0.33907699584960938</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="1" t="s">
         <v>29</v>
@@ -1671,7 +1674,7 @@
         <v>1.100277900695801E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="1" t="s">
         <v>30</v>
@@ -1704,7 +1707,7 @@
         <v>0.36808395385742188</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="1" t="s">
         <v>31</v>
@@ -1737,7 +1740,7 @@
         <v>0.28406572341918951</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="1" t="s">
         <v>32</v>
@@ -1770,7 +1773,7 @@
         <v>1.1002302169799799E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>33</v>
       </c>
@@ -1805,7 +1808,7 @@
         <v>0.46810579299926758</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="1" t="s">
         <v>10</v>
@@ -1838,7 +1841,7 @@
         <v>0.47099637985229492</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="1" t="s">
         <v>11</v>
@@ -1871,7 +1874,7 @@
         <v>1.3003110885620121E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="1" t="s">
         <v>12</v>
@@ -1904,7 +1907,7 @@
         <v>15.430972099304199</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="1" t="s">
         <v>13</v>
@@ -1937,7 +1940,7 @@
         <v>5.5012226104736328E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="1" t="s">
         <v>14</v>
@@ -1970,7 +1973,7 @@
         <v>0.5391232967376709</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="1" t="s">
         <v>15</v>
@@ -2003,7 +2006,7 @@
         <v>8.6019277572631836E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="1" t="s">
         <v>16</v>
@@ -2036,7 +2039,7 @@
         <v>4.7031164169311523E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="1" t="s">
         <v>17</v>
@@ -2069,7 +2072,7 @@
         <v>3.4007549285888672E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="1" t="s">
         <v>18</v>
@@ -2102,7 +2105,7 @@
         <v>3.3007383346557617E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>34</v>
       </c>
@@ -2137,7 +2140,7 @@
         <v>0.3140714168548584</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="1" t="s">
         <v>10</v>
@@ -2170,7 +2173,7 @@
         <v>0.32007265090942377</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="1" t="s">
         <v>11</v>
@@ -2203,7 +2206,7 @@
         <v>1.100254058837891E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="1" t="s">
         <v>12</v>
@@ -2236,7 +2239,7 @@
         <v>14.614700794219971</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="1" t="s">
         <v>13</v>
@@ -2269,7 +2272,7 @@
         <v>5.5012702941894531E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="1" t="s">
         <v>14</v>
@@ -2302,7 +2305,7 @@
         <v>0.50911545753479004</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="1" t="s">
         <v>15</v>
@@ -2335,7 +2338,7 @@
         <v>7.3016881942749023E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="1" t="s">
         <v>16</v>
@@ -2368,7 +2371,7 @@
         <v>3.8009405136108398E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="1" t="s">
         <v>17</v>
@@ -2401,7 +2404,7 @@
         <v>3.2007217407226563E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="1" t="s">
         <v>18</v>
@@ -2453,14 +2456,14 @@
       <selection activeCell="A16" sqref="A16:K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
@@ -2480,7 +2483,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2503,7 +2506,7 @@
         <v>0.53429231954790646</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2526,7 +2529,7 @@
         <v>0.91261952146719916</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -2549,7 +2552,7 @@
         <v>5.1847051198963059E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -2572,7 +2575,7 @@
         <v>0.85106382978723405</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -2595,7 +2598,7 @@
         <v>0.69808028329850547</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -2618,7 +2621,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -2641,7 +2644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2664,7 +2667,7 @@
         <v>2829.5603652000432</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
@@ -2687,7 +2690,7 @@
         <v>0.1520347595214844</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -2710,7 +2713,7 @@
         <v>0.14903450012207031</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2742,7 +2745,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -2777,7 +2780,7 @@
         <v>1.10015869140625E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -2812,7 +2815,7 @@
         <v>74.969163417816162</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -2847,7 +2850,7 @@
         <v>6.3014507293701172E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>1.032234668731689</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>5.9012651443481452E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -2965,22 +2968,22 @@
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3009,7 +3012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>AVERAGE(D3:D12)</f>
         <v>0.76506404331409994</v>
@@ -3051,7 +3054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -3089,7 +3092,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>33</v>
       </c>
@@ -3127,7 +3130,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
@@ -3165,7 +3168,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>33</v>
       </c>
@@ -3203,7 +3206,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
@@ -3241,7 +3244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
@@ -3279,7 +3282,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
@@ -3317,7 +3320,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -3352,7 +3355,7 @@
         <v>0.39809083938598627</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3387,7 +3390,7 @@
         <v>4.0008783340454102E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>AVERAGE(D13:D22)</f>
         <v>0.73055183944449764</v>
@@ -3426,7 +3429,7 @@
         <v>3.4007549285888672E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -3461,7 +3464,7 @@
         <v>4.7031164169311523E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
@@ -3496,7 +3499,7 @@
         <v>1.3003110885620121E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
@@ -3531,7 +3534,7 @@
         <v>0.3140714168548584</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
@@ -3566,7 +3569,7 @@
         <v>0.40109086036682129</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
@@ -3601,7 +3604,7 @@
         <v>3.5007953643798828E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3636,7 +3639,7 @@
         <v>0.36808395385742188</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3671,7 +3674,7 @@
         <v>0.35908150672912598</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
@@ -3706,7 +3709,7 @@
         <v>0.383087158203125</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
@@ -3741,7 +3744,7 @@
         <v>3.1007289886474609E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>AVERAGE(D23:D34)</f>
         <v>0.64199376937573627</v>
@@ -3780,7 +3783,7 @@
         <v>0.32007265090942377</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
@@ -3815,7 +3818,7 @@
         <v>7.7994539737701416</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
@@ -3850,7 +3853,7 @@
         <v>3.2007455825805657E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
@@ -3885,7 +3888,7 @@
         <v>0.50911545753479004</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
@@ -3920,7 +3923,7 @@
         <v>0.5391232967376709</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
@@ -3955,7 +3958,7 @@
         <v>0.53112077713012695</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
@@ -3990,7 +3993,7 @@
         <v>3.3007383346557617E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>20</v>
       </c>
@@ -4025,7 +4028,7 @@
         <v>0.28406572341918951</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>20</v>
       </c>
@@ -4060,7 +4063,7 @@
         <v>0.28206443786621088</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>19</v>
       </c>
@@ -4095,7 +4098,7 @@
         <v>1.2002706527709959E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
@@ -4130,7 +4133,7 @@
         <v>0.29306674003601069</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
@@ -4165,7 +4168,7 @@
         <v>1.100254058837891E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>AVERAGE(D35:D44)</f>
         <v>0.35857142738267272</v>
@@ -4204,7 +4207,7 @@
         <v>0.33907699584960938</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>20</v>
       </c>
@@ -4239,7 +4242,7 @@
         <v>0.34207820892333979</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>33</v>
       </c>
@@ -4274,7 +4277,7 @@
         <v>8.6019277572631836E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>19</v>
       </c>
@@ -4309,7 +4312,7 @@
         <v>7.7017784118652344E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>7.3016881942749023E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>19</v>
       </c>
@@ -4379,7 +4382,7 @@
         <v>5.4012060165405273E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>20</v>
       </c>
@@ -4414,7 +4417,7 @@
         <v>1.10018253326416E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>34</v>
       </c>
@@ -4449,7 +4452,7 @@
         <v>5.5012702941894531E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>20</v>
       </c>
@@ -4484,7 +4487,7 @@
         <v>1.100277900695801E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>33</v>
       </c>
@@ -4519,7 +4522,7 @@
         <v>5.5012226104736328E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="s">
         <v>0</v>
       </c>
@@ -4551,7 +4554,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="C48" s="1" t="s">
         <v>40</v>
@@ -4587,7 +4590,7 @@
         <v>0.14903450012207031</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="10"/>
       <c r="C49" s="4" t="s">
         <v>49</v>
@@ -4620,7 +4623,7 @@
         <v>2785.7766802310939</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10"/>
       <c r="C50" s="3" t="s">
         <v>50</v>
@@ -4653,7 +4656,7 @@
         <v>0.85363626480102539</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="10"/>
       <c r="C51" s="4" t="s">
         <v>53</v>
@@ -4686,7 +4689,7 @@
         <v>6.2342522144317627</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="C52" s="6" t="s">
         <v>36</v>
@@ -4722,7 +4725,7 @@
         <v>74.969163417816162</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="C53" s="6" t="s">
         <v>35</v>
@@ -4758,7 +4761,7 @@
         <v>1.10015869140625E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10"/>
       <c r="C54" s="3" t="s">
         <v>51</v>
@@ -4791,7 +4794,7 @@
         <v>1.173768281936646</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="C55" s="1" t="s">
         <v>37</v>
@@ -4827,7 +4830,7 @@
         <v>6.3014507293701172E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10"/>
       <c r="C56" s="3" t="s">
         <v>48</v>
@@ -4860,7 +4863,7 @@
         <v>10.52744150161743</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="10"/>
       <c r="C57" s="3" t="s">
         <v>52</v>
@@ -4893,7 +4896,7 @@
         <v>1.2859871387481689</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="C58" s="1" t="s">
         <v>38</v>
@@ -4929,7 +4932,7 @@
         <v>1.032234668731689</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="10"/>
       <c r="C59" s="3" t="s">
         <v>55</v>
@@ -4962,7 +4965,7 @@
         <v>1.090114831924438</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="10"/>
       <c r="C60" s="3" t="s">
         <v>54</v>
@@ -4995,7 +4998,7 @@
         <v>0.33799505233764648</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="C61" s="1" t="s">
         <v>39</v>
@@ -5031,10 +5034,10 @@
         <v>5.9012651443481452E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C62" s="7"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C63" s="7"/>
     </row>
   </sheetData>
@@ -5047,25 +5050,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402F7E11-1355-4E9D-BD83-254983E0A558}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5094,7 +5095,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>53</v>
       </c>
@@ -5126,7 +5127,7 @@
         <v>6.2342522144317627</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
@@ -5158,7 +5159,7 @@
         <v>1.173768281936646</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
@@ -5190,7 +5191,7 @@
         <v>8.5441548824310303</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
@@ -5222,7 +5223,7 @@
         <v>1.2859871387481689</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -5254,7 +5255,7 @@
         <v>1.300382614135742E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -5286,7 +5287,7 @@
         <v>74.701642036437988</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -5318,7 +5319,7 @@
         <v>7.8017473220825195E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
@@ -5350,7 +5351,7 @@
         <v>2785.7766802310939</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>55</v>
       </c>
@@ -5382,7 +5383,7 @@
         <v>1.090114831924438</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
@@ -5414,7 +5415,7 @@
         <v>0.33799505233764648</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -5446,7 +5447,7 @@
         <v>1.028234481811523</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -5478,7 +5479,7 @@
         <v>6.1014413833618157E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
@@ -5510,7 +5511,7 @@
         <v>0.85363626480102539</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -5539,6 +5540,483 @@
         <v>2829.5603652000432</v>
       </c>
       <c r="J15">
+        <v>0.1520347595214844</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.79741727199354318</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.90379636873323299</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.59375</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.77776653446199817</v>
+      </c>
+      <c r="H20" s="8">
+        <v>52</v>
+      </c>
+      <c r="I20" s="8">
+        <v>18</v>
+      </c>
+      <c r="J20" s="8">
+        <v>204.73599044481909</v>
+      </c>
+      <c r="K20" s="8">
+        <v>6.2342522144317627</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21">
+        <v>0.79046836483155314</v>
+      </c>
+      <c r="D21">
+        <v>0.89352876158126815</v>
+      </c>
+      <c r="E21">
+        <v>0.88095238095238093</v>
+      </c>
+      <c r="F21">
+        <v>0.78723404255319152</v>
+      </c>
+      <c r="G21">
+        <v>0.80511414406811932</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>628.83125205039983</v>
+      </c>
+      <c r="K21">
+        <v>1.173768281936646</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22">
+        <v>0.78010686395396633</v>
+      </c>
+      <c r="D22">
+        <v>0.88820961264509801</v>
+      </c>
+      <c r="E22">
+        <v>0.87951807228915657</v>
+      </c>
+      <c r="F22">
+        <v>0.77659574468085102</v>
+      </c>
+      <c r="G22">
+        <v>0.80683498090524919</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>21</v>
+      </c>
+      <c r="J22">
+        <v>1083.818585634232</v>
+      </c>
+      <c r="K22">
+        <v>8.5441548824310303</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23">
+        <v>0.7794661190965092</v>
+      </c>
+      <c r="D23">
+        <v>0.88819196070603246</v>
+      </c>
+      <c r="E23">
+        <v>0.85882352941176465</v>
+      </c>
+      <c r="F23">
+        <v>0.77659574468085102</v>
+      </c>
+      <c r="G23">
+        <v>0.79723721826175509</v>
+      </c>
+      <c r="H23">
+        <v>12</v>
+      </c>
+      <c r="I23">
+        <v>21</v>
+      </c>
+      <c r="J23">
+        <v>589.43659858703609</v>
+      </c>
+      <c r="K23">
+        <v>1.2859871387481689</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>0.77442414614773636</v>
+      </c>
+      <c r="D24">
+        <v>0.89811535504621998</v>
+      </c>
+      <c r="E24">
+        <v>0.44642857142857151</v>
+      </c>
+      <c r="F24">
+        <v>0.7978723404255319</v>
+      </c>
+      <c r="G24">
+        <v>0.6929470987941333</v>
+      </c>
+      <c r="H24">
+        <v>93</v>
+      </c>
+      <c r="I24">
+        <v>19</v>
+      </c>
+      <c r="J24">
+        <v>797.83375072479248</v>
+      </c>
+      <c r="K24">
+        <v>1.300382614135742E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>0.76411446249033255</v>
+      </c>
+      <c r="D25">
+        <v>0.90284316402369558</v>
+      </c>
+      <c r="E25">
+        <v>0.32203389830508472</v>
+      </c>
+      <c r="F25">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="G25">
+        <v>0.63109300844688321</v>
+      </c>
+      <c r="H25">
+        <v>160</v>
+      </c>
+      <c r="I25">
+        <v>18</v>
+      </c>
+      <c r="J25">
+        <v>6471.1831476688394</v>
+      </c>
+      <c r="K25">
+        <v>74.701642036437988</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <v>0.76379515680825727</v>
+      </c>
+      <c r="D26">
+        <v>0.89277855417098428</v>
+      </c>
+      <c r="E26">
+        <v>0.43786982248520712</v>
+      </c>
+      <c r="F26">
+        <v>0.78723404255319152</v>
+      </c>
+      <c r="G26">
+        <v>0.74267613697109314</v>
+      </c>
+      <c r="H26">
+        <v>95</v>
+      </c>
+      <c r="I26">
+        <v>20</v>
+      </c>
+      <c r="J26">
+        <v>4459.9327099323273</v>
+      </c>
+      <c r="K26">
+        <v>7.8017473220825195E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27">
+        <v>0.75689981096408332</v>
+      </c>
+      <c r="D27">
+        <v>0.90765040672696617</v>
+      </c>
+      <c r="E27">
+        <v>0.26101694915254242</v>
+      </c>
+      <c r="F27">
+        <v>0.81914893617021278</v>
+      </c>
+      <c r="G27">
+        <v>0.80113338016704927</v>
+      </c>
+      <c r="H27">
+        <v>218</v>
+      </c>
+      <c r="I27">
+        <v>17</v>
+      </c>
+      <c r="J27">
+        <v>621.48497343063354</v>
+      </c>
+      <c r="K27">
+        <v>2785.7766802310939</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28">
+        <v>0.75051546391752577</v>
+      </c>
+      <c r="D28">
+        <v>0.87229629568425104</v>
+      </c>
+      <c r="E28">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="F28">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="G28">
+        <v>0.78794303482881833</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>24</v>
+      </c>
+      <c r="J28">
+        <v>238.5943453192711</v>
+      </c>
+      <c r="K28">
+        <v>1.090114831924438</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29">
+        <v>0.74743326488706363</v>
+      </c>
+      <c r="D29">
+        <v>0.8722080359889236</v>
+      </c>
+      <c r="E29">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="F29">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="G29">
+        <v>0.68698419987573189</v>
+      </c>
+      <c r="H29">
+        <v>15</v>
+      </c>
+      <c r="I29">
+        <v>24</v>
+      </c>
+      <c r="J29">
+        <v>39.437344989776612</v>
+      </c>
+      <c r="K29">
+        <v>0.33799505233764648</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30">
+        <v>0.7290679304897314</v>
+      </c>
+      <c r="D30">
+        <v>0.87667989184994954</v>
+      </c>
+      <c r="E30">
+        <v>0.39010989010989011</v>
+      </c>
+      <c r="F30">
+        <v>0.75531914893617025</v>
+      </c>
+      <c r="G30">
+        <v>0.71239305785698559</v>
+      </c>
+      <c r="H30">
+        <v>111</v>
+      </c>
+      <c r="I30">
+        <v>23</v>
+      </c>
+      <c r="J30">
+        <v>3029.172640562057</v>
+      </c>
+      <c r="K30">
+        <v>1.028234481811523</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>0.71232876712328763</v>
+      </c>
+      <c r="D31">
+        <v>0.87114891964499319</v>
+      </c>
+      <c r="E31">
+        <v>0.34146341463414642</v>
+      </c>
+      <c r="F31">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="G31">
+        <v>0.56444419910745947</v>
+      </c>
+      <c r="H31">
+        <v>135</v>
+      </c>
+      <c r="I31">
+        <v>24</v>
+      </c>
+      <c r="J31">
+        <v>36006.675769805908</v>
+      </c>
+      <c r="K31">
+        <v>6.1014413833618157E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>0.63778273335457158</v>
+      </c>
+      <c r="D32">
+        <v>0.90329037777778609</v>
+      </c>
+      <c r="E32">
+        <v>9.7591888466413187E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.81914893617021278</v>
+      </c>
+      <c r="G32">
+        <v>0.70210898520029352</v>
+      </c>
+      <c r="H32">
+        <v>712</v>
+      </c>
+      <c r="I32">
+        <v>17</v>
+      </c>
+      <c r="J32">
+        <v>17.717572500705721</v>
+      </c>
+      <c r="K32">
+        <v>0.85363626480102539</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33">
+        <v>0.53429231954790646</v>
+      </c>
+      <c r="D33">
+        <v>0.91261952146719916</v>
+      </c>
+      <c r="E33">
+        <v>5.1847051198963059E-2</v>
+      </c>
+      <c r="F33">
+        <v>0.85106382978723405</v>
+      </c>
+      <c r="G33">
+        <v>0.69808028329850547</v>
+      </c>
+      <c r="H33">
+        <v>1463</v>
+      </c>
+      <c r="I33">
+        <v>14</v>
+      </c>
+      <c r="J33">
+        <v>2829.5603652000432</v>
+      </c>
+      <c r="K33">
         <v>0.1520347595214844</v>
       </c>
     </row>
